--- a/parameter_search_results/randomforestregressor.xlsx
+++ b/parameter_search_results/randomforestregressor.xlsx
@@ -532,22 +532,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2113633632659912</v>
+        <v>0.1888980865478516</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008013023601159431</v>
+        <v>0.005903543490114987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01021637916564941</v>
+        <v>0.008619165420532227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001686390140745802</v>
+        <v>0.001055723569778275</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,52 +565,52 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 121}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 121}</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-8.275877256461381</v>
+        <v>-8.380135076804121</v>
       </c>
       <c r="M2" t="n">
-        <v>-9.18674264096699</v>
+        <v>-9.239586871595458</v>
       </c>
       <c r="N2" t="n">
-        <v>-10.43984634148691</v>
+        <v>-10.50657553330462</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.300216921565063</v>
+        <v>-9.241098409326314</v>
       </c>
       <c r="P2" t="n">
-        <v>-8.566705533874551</v>
+        <v>-8.521488759384955</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.15387773887098</v>
+        <v>-9.177776930083093</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7472438090111112</v>
+        <v>0.7537217650602116</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8353394985198974</v>
+        <v>0.8606833457946778</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01950709425075262</v>
+        <v>0.03445335325486571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00990157127380371</v>
+        <v>0.009595584869384766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001837219075340231</v>
+        <v>0.0015505455125959</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
@@ -624,52 +624,52 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 137}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': None, 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 137}</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-8.570517598663827</v>
+        <v>-8.578278633875914</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.996703308103548</v>
+        <v>-8.964749753050654</v>
       </c>
       <c r="N3" t="n">
-        <v>-10.6302256379577</v>
+        <v>-10.62979767105566</v>
       </c>
       <c r="O3" t="n">
-        <v>-9.224024052860289</v>
+        <v>-9.223686016557728</v>
       </c>
       <c r="P3" t="n">
-        <v>-8.573420333900907</v>
+        <v>-8.574049548137193</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9.198978186297255</v>
+        <v>-9.19411232453543</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7584585719164871</v>
+        <v>0.7587362108001521</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9635480880737305</v>
+        <v>0.5913283348083496</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0250052134927449</v>
+        <v>0.02404580444177458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00786900520324707</v>
+        <v>0.006992816925048828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001357140785942947</v>
+        <v>0.001163974720450276</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
@@ -683,52 +683,52 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 87}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 87}</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-8.572336510443112</v>
+        <v>-8.637441817271254</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.081430204006805</v>
+        <v>-9.026360770166464</v>
       </c>
       <c r="N4" t="n">
-        <v>-10.87198889804297</v>
+        <v>-10.84451663030614</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.258207881850288</v>
+        <v>-9.168656388432057</v>
       </c>
       <c r="P4" t="n">
-        <v>-9.032893448198227</v>
+        <v>-8.653966043394449</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9.363371388508281</v>
+        <v>-9.266188329914073</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7875822283511108</v>
+        <v>0.8158784550549271</v>
       </c>
       <c r="S4" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.256983232498169</v>
+        <v>0.3243053913116455</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005778752175440308</v>
+        <v>0.0126054724228266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009686946868896484</v>
+        <v>0.0117495059967041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001883379002353708</v>
+        <v>0.002720552540999317</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -746,52 +746,52 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 138}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 138}</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-8.334271139824736</v>
+        <v>-8.427235216665542</v>
       </c>
       <c r="M5" t="n">
-        <v>-9.175390401674168</v>
+        <v>-8.910675479883276</v>
       </c>
       <c r="N5" t="n">
-        <v>-10.64427064303776</v>
+        <v>-10.52845748796739</v>
       </c>
       <c r="O5" t="n">
-        <v>-9.337905552018578</v>
+        <v>-9.332359406461686</v>
       </c>
       <c r="P5" t="n">
-        <v>-8.61839232774312</v>
+        <v>-8.796914769489044</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9.222046012859673</v>
+        <v>-9.199128472093388</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7988573182116313</v>
+        <v>0.7246607900762762</v>
       </c>
       <c r="S5" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3353425979614258</v>
+        <v>0.4570891380310059</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01117570940221455</v>
+        <v>0.01025898027177487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006618404388427734</v>
+        <v>0.006114530563354492</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001141225704345161</v>
+        <v>0.0006161926843875882</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
@@ -805,52 +805,52 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 64}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 64}</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>-8.481729396294762</v>
+        <v>-8.427054873977919</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.157433725609708</v>
+        <v>-8.997538392197381</v>
       </c>
       <c r="N6" t="n">
-        <v>-10.8694396261223</v>
+        <v>-10.71341028190936</v>
       </c>
       <c r="O6" t="n">
-        <v>-9.181203547775484</v>
+        <v>-9.313488250654622</v>
       </c>
       <c r="P6" t="n">
-        <v>-8.566388475899936</v>
+        <v>-8.628187635196852</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9.251238954340437</v>
+        <v>-9.215935886787227</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8594699449089577</v>
+        <v>0.8083841602857161</v>
       </c>
       <c r="S6" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.72726526260376</v>
+        <v>1.715904045104981</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03915216542767182</v>
+        <v>0.08245262517114603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008205366134643555</v>
+        <v>0.008819961547851562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001465181349678823</v>
+        <v>0.002316690799434345</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
@@ -864,29 +864,29 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(13), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 100}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(17), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>-16.87767572863248</v>
       </c>
       <c r="M7" t="n">
-        <v>-16.45910589123931</v>
+        <v>-16.6434357758547</v>
       </c>
       <c r="N7" t="n">
-        <v>-19.05260728803419</v>
+        <v>-19.11015215790598</v>
       </c>
       <c r="O7" t="n">
-        <v>-17.85184204220499</v>
+        <v>-17.77754742807923</v>
       </c>
       <c r="P7" t="n">
         <v>-16.35527145779501</v>
       </c>
       <c r="Q7" t="n">
-        <v>-17.3193004815812</v>
+        <v>-17.35281650965348</v>
       </c>
       <c r="R7" t="n">
-        <v>1.015113009813242</v>
+        <v>0.9992698185622618</v>
       </c>
       <c r="S7" t="n">
         <v>100</v>
@@ -894,22 +894,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3162750720977783</v>
+        <v>0.3444329738616944</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01703932745436841</v>
+        <v>0.01025754191077284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01340384483337402</v>
+        <v>0.01417417526245117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001940208099674828</v>
+        <v>0.006458681188824178</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -927,52 +927,52 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 181}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 181}</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>-8.267219455449727</v>
+        <v>-8.288708240611262</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.18140509290407</v>
+        <v>-9.09222616415043</v>
       </c>
       <c r="N8" t="n">
-        <v>-10.57058001632244</v>
+        <v>-10.56837008191282</v>
       </c>
       <c r="O8" t="n">
-        <v>-9.220840748140994</v>
+        <v>-9.193403438175835</v>
       </c>
       <c r="P8" t="n">
-        <v>-8.622682853065067</v>
+        <v>-8.68064846817296</v>
       </c>
       <c r="Q8" t="n">
-        <v>-9.172545633176458</v>
+        <v>-9.164671278604661</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7847134011400073</v>
+        <v>0.7717555943379358</v>
       </c>
       <c r="S8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2005379199981689</v>
+        <v>0.2146100044250488</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006648960685392911</v>
+        <v>0.01108024395263788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009810113906860351</v>
+        <v>0.009984397888183593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001171445222536828</v>
+        <v>0.001776222744878828</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -990,52 +990,52 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 133}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 133}</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>-8.284964950069025</v>
+        <v>-8.30215928743454</v>
       </c>
       <c r="M9" t="n">
-        <v>-9.038129195208613</v>
+        <v>-8.979935910673499</v>
       </c>
       <c r="N9" t="n">
-        <v>-10.69050940214684</v>
+        <v>-10.75408389661036</v>
       </c>
       <c r="O9" t="n">
-        <v>-9.156785048956493</v>
+        <v>-9.222264315382427</v>
       </c>
       <c r="P9" t="n">
-        <v>-8.557064793570316</v>
+        <v>-8.709028193636753</v>
       </c>
       <c r="Q9" t="n">
-        <v>-9.145490677990257</v>
+        <v>-9.193494320747515</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8349235244817066</v>
+        <v>0.8379809426622009</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.123690128326416</v>
+        <v>0.2061060905456543</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005883274046786425</v>
+        <v>0.007421604890399644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007960271835327149</v>
+        <v>0.008003759384155273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001819713253998044</v>
+        <v>0.001198765252821036</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1053,46 +1053,46 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 16, 'regressor__n_estimators': 84}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 16, 'regressor__n_estimators': 84}</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>-8.372085373897205</v>
+        <v>-8.258330393890569</v>
       </c>
       <c r="M10" t="n">
-        <v>-9.239449772175966</v>
+        <v>-8.926310032644096</v>
       </c>
       <c r="N10" t="n">
-        <v>-10.51810303848321</v>
+        <v>-10.43791995067378</v>
       </c>
       <c r="O10" t="n">
-        <v>-9.114880163192467</v>
+        <v>-9.564592115120028</v>
       </c>
       <c r="P10" t="n">
-        <v>-8.542284452699425</v>
+        <v>-8.854853398212638</v>
       </c>
       <c r="Q10" t="n">
-        <v>-9.157360560089653</v>
+        <v>-9.208401178108222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7556638209280662</v>
+        <v>0.7410525403428231</v>
       </c>
       <c r="S10" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1040351867675781</v>
+        <v>0.09744219779968262</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008975881468512076</v>
+        <v>0.002260454202688709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005243873596191407</v>
+        <v>0.004591798782348633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007598721357077759</v>
+        <v>0.0001073054829815736</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1139,27 +1139,27 @@
         <v>0.7296976288814774</v>
       </c>
       <c r="S11" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1941265106201172</v>
+        <v>0.1902328968048096</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005705512763618807</v>
+        <v>0.008414112018486575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00904850959777832</v>
+        <v>0.008517122268676758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001158198149443218</v>
+        <v>0.001536087832305102</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1177,52 +1177,52 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 5, 'regressor__n_estimators': 103}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 5, 'regressor__n_estimators': 103}</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>-8.307869095440475</v>
+        <v>-8.26485364055857</v>
       </c>
       <c r="M12" t="n">
-        <v>-9.233621340800489</v>
+        <v>-9.31663973778447</v>
       </c>
       <c r="N12" t="n">
-        <v>-10.37080797609556</v>
+        <v>-10.32282728156707</v>
       </c>
       <c r="O12" t="n">
-        <v>-9.444035784332389</v>
+        <v>-9.385706011365464</v>
       </c>
       <c r="P12" t="n">
-        <v>-8.902990155636081</v>
+        <v>-8.901242641154216</v>
       </c>
       <c r="Q12" t="n">
-        <v>-9.251864870460999</v>
+        <v>-9.238253862485958</v>
       </c>
       <c r="R12" t="n">
-        <v>0.678548119157443</v>
+        <v>0.6730929413364244</v>
       </c>
       <c r="S12" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.09256267547607422</v>
+        <v>0.09595060348510742</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004913979300113174</v>
+        <v>0.001875582152030359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005650806427001953</v>
+        <v>0.005729341506958007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009157784857607196</v>
+        <v>0.0001947475926099677</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1240,52 +1240,52 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 63}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 63}</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>-8.252947269975886</v>
+        <v>-8.345530378348224</v>
       </c>
       <c r="M13" t="n">
-        <v>-9.26120682909283</v>
+        <v>-9.267060925098653</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.60334962422807</v>
+        <v>-10.57353583746643</v>
       </c>
       <c r="O13" t="n">
-        <v>-9.242267262608369</v>
+        <v>-9.233904482141526</v>
       </c>
       <c r="P13" t="n">
-        <v>-8.650915639396638</v>
+        <v>-8.674089202342337</v>
       </c>
       <c r="Q13" t="n">
-        <v>-9.20213732506036</v>
+        <v>-9.218824165079434</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7966558394878344</v>
+        <v>0.7612064284874287</v>
       </c>
       <c r="S13" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1619654178619385</v>
+        <v>0.2104106903076172</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009184028719165549</v>
+        <v>0.01187685057429667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01277713775634766</v>
+        <v>0.01076717376708984</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005449792452776789</v>
+        <v>0.001378486192666873</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1303,52 +1303,52 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 131}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 131}</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>-8.438048649986211</v>
+        <v>-8.360234360431422</v>
       </c>
       <c r="M14" t="n">
-        <v>-9.411403876733605</v>
+        <v>-9.048041896028302</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.6523970447268</v>
+        <v>-10.59879132886003</v>
       </c>
       <c r="O14" t="n">
-        <v>-9.199998982214614</v>
+        <v>-9.148698776047572</v>
       </c>
       <c r="P14" t="n">
-        <v>-8.691555901314501</v>
+        <v>-8.741228948838398</v>
       </c>
       <c r="Q14" t="n">
-        <v>-9.278680890995146</v>
+        <v>-9.179399062041144</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7697117152372266</v>
+        <v>0.761038169370724</v>
       </c>
       <c r="S14" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.09333333969116211</v>
+        <v>0.1023542881011963</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004015583185013102</v>
+        <v>0.007773377744394032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00565943717956543</v>
+        <v>0.006144809722900391</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007275939213318445</v>
+        <v>0.0008280070601876918</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1366,46 +1366,46 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 64}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 64}</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>-8.169184407980008</v>
+        <v>-8.205473198754207</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.274114078380471</v>
+        <v>-9.344206681995164</v>
       </c>
       <c r="N15" t="n">
-        <v>-10.62798717604038</v>
+        <v>-10.5823718600869</v>
       </c>
       <c r="O15" t="n">
-        <v>-9.397469491463029</v>
+        <v>-9.332010207004265</v>
       </c>
       <c r="P15" t="n">
-        <v>-8.618483358889682</v>
+        <v>-8.760134484187397</v>
       </c>
       <c r="Q15" t="n">
-        <v>-9.217447702550714</v>
+        <v>-9.244839286405586</v>
       </c>
       <c r="R15" t="n">
-        <v>0.834608261237199</v>
+        <v>0.7901501938006387</v>
       </c>
       <c r="S15" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.290541410446167</v>
+        <v>0.2801615238189697</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01355481919429706</v>
+        <v>0.01599053801121569</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009705162048339844</v>
+        <v>0.01047396659851074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001424108405366776</v>
+        <v>0.001682471360036749</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1452,27 +1452,27 @@
         <v>0.7825173351480104</v>
       </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9775188446044922</v>
+        <v>1.392910575866699</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04016523895311686</v>
+        <v>0.03089200715349982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01445169448852539</v>
+        <v>0.0123018741607666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002134232459473701</v>
+        <v>0.001266378747354244</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -1486,52 +1486,52 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 185}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 185}</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>-8.483227525872628</v>
+        <v>-8.438872412436256</v>
       </c>
       <c r="M17" t="n">
-        <v>-9.069635411846676</v>
+        <v>-8.889609056704719</v>
       </c>
       <c r="N17" t="n">
-        <v>-10.79327198418081</v>
+        <v>-10.72541908434651</v>
       </c>
       <c r="O17" t="n">
-        <v>-9.180982464881755</v>
+        <v>-9.321190811246796</v>
       </c>
       <c r="P17" t="n">
-        <v>-8.51520166258242</v>
+        <v>-8.656015975350011</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.208463809872857</v>
+        <v>-9.206221468016858</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8412164489916429</v>
+        <v>0.8139991920883607</v>
       </c>
       <c r="S17" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2040885448455811</v>
+        <v>0.1895524024963379</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01665616957594792</v>
+        <v>0.007560095709620464</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007202672958374024</v>
+        <v>0.008136892318725586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001985797401730005</v>
+        <v>0.001415008161671426</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1549,52 +1549,52 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 90}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 90}</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>-8.341344161864065</v>
+        <v>-8.296918958372299</v>
       </c>
       <c r="M18" t="n">
-        <v>-9.049241013666597</v>
+        <v>-9.030035347870482</v>
       </c>
       <c r="N18" t="n">
-        <v>-10.60684795218805</v>
+        <v>-10.65831731735182</v>
       </c>
       <c r="O18" t="n">
-        <v>-9.352842612224814</v>
+        <v>-9.356763560234594</v>
       </c>
       <c r="P18" t="n">
-        <v>-8.729155096945169</v>
+        <v>-8.714106374927448</v>
       </c>
       <c r="Q18" t="n">
-        <v>-9.215886167377738</v>
+        <v>-9.211228311751329</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7724031610727081</v>
+        <v>0.803886783395366</v>
       </c>
       <c r="S18" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1181655883789063</v>
+        <v>0.2048404216766357</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002535586220809228</v>
+        <v>0.0100738059817416</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006395912170410157</v>
+        <v>0.006285429000854492</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001038235389933843</v>
+        <v>0.0004715016358607768</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1612,52 +1612,52 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 82}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 82}</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>-8.380596022967293</v>
+        <v>-8.257218102339658</v>
       </c>
       <c r="M19" t="n">
-        <v>-9.228203799361234</v>
+        <v>-8.930477044604155</v>
       </c>
       <c r="N19" t="n">
-        <v>-10.50207581777981</v>
+        <v>-10.42119237184791</v>
       </c>
       <c r="O19" t="n">
-        <v>-9.123055290143519</v>
+        <v>-9.546172558305999</v>
       </c>
       <c r="P19" t="n">
-        <v>-8.550556364629145</v>
+        <v>-8.880109227086397</v>
       </c>
       <c r="Q19" t="n">
-        <v>-9.1568974589762</v>
+        <v>-9.207033860836821</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7464620748313272</v>
+        <v>0.731397198494619</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.073016214370728</v>
+        <v>2.290206718444824</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04019580091270038</v>
+        <v>0.08346604211890658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009797811508178711</v>
+        <v>0.01064505577087402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001938954792873839</v>
+        <v>0.001632554827667364</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
@@ -1671,52 +1671,52 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 153}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 153}</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>-9.850177376987082</v>
+        <v>-16.63359263460472</v>
       </c>
       <c r="M20" t="n">
-        <v>-11.27808790457738</v>
+        <v>-16.62910371386797</v>
       </c>
       <c r="N20" t="n">
-        <v>-12.89600654256078</v>
+        <v>-18.96065451824968</v>
       </c>
       <c r="O20" t="n">
-        <v>-10.40114231564741</v>
+        <v>-17.06976624272002</v>
       </c>
       <c r="P20" t="n">
-        <v>-9.198847661576528</v>
+        <v>-13.25458049890903</v>
       </c>
       <c r="Q20" t="n">
-        <v>-10.72485236026984</v>
+        <v>-16.50953952167028</v>
       </c>
       <c r="R20" t="n">
-        <v>1.282069803916223</v>
+        <v>1.84099221704895</v>
       </c>
       <c r="S20" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.050604248046875</v>
+        <v>1.710631656646729</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01150106757826573</v>
+        <v>0.0758292493508745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009297466278076172</v>
+        <v>0.01142020225524902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001465619534957965</v>
+        <v>0.002888707629621325</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
@@ -1730,52 +1730,52 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 150}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 150}</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>-9.850177376987084</v>
+        <v>-14.30001076556205</v>
       </c>
       <c r="M21" t="n">
-        <v>-11.27853694088886</v>
+        <v>-12.35867898509263</v>
       </c>
       <c r="N21" t="n">
-        <v>-12.89600654256078</v>
+        <v>-15.33872216510493</v>
       </c>
       <c r="O21" t="n">
-        <v>-10.40114231564741</v>
+        <v>-14.30866687443267</v>
       </c>
       <c r="P21" t="n">
-        <v>-9.315512350707998</v>
+        <v>-11.55152130644301</v>
       </c>
       <c r="Q21" t="n">
-        <v>-10.74827510535843</v>
+        <v>-13.57152001932706</v>
       </c>
       <c r="R21" t="n">
-        <v>1.254895832735068</v>
+        <v>1.396314137417513</v>
       </c>
       <c r="S21" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3182939529418946</v>
+        <v>0.3153141498565674</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02179073436284291</v>
+        <v>0.01587337590374097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01094117164611816</v>
+        <v>0.01314997673034668</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002074568599932841</v>
+        <v>0.0001746922718943134</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1793,52 +1793,52 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 152}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 152}</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>-8.227781527261183</v>
+        <v>-8.225762292361066</v>
       </c>
       <c r="M22" t="n">
-        <v>-9.160262106509551</v>
+        <v>-9.152195384382283</v>
       </c>
       <c r="N22" t="n">
-        <v>-10.4602305920726</v>
+        <v>-10.45464533765939</v>
       </c>
       <c r="O22" t="n">
-        <v>-9.176249599165983</v>
+        <v>-9.174577586479645</v>
       </c>
       <c r="P22" t="n">
-        <v>-8.688990281053323</v>
+        <v>-8.688275316081628</v>
       </c>
       <c r="Q22" t="n">
-        <v>-9.142702821212527</v>
+        <v>-9.139091183392804</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7456874928577016</v>
+        <v>0.7442470486482936</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.175638055801392</v>
+        <v>0.8564049243927002</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03085389361322634</v>
+        <v>0.02302865722974778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01343760490417481</v>
+        <v>0.01422033309936523</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003399573787801374</v>
+        <v>0.005217394119992827</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
@@ -1852,52 +1852,52 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 173}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 173}</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>-8.519842636855463</v>
+        <v>-8.554671352627995</v>
       </c>
       <c r="M23" t="n">
-        <v>-8.922351700344851</v>
+        <v>-9.029959312222765</v>
       </c>
       <c r="N23" t="n">
-        <v>-10.60675305731638</v>
+        <v>-10.75467951877762</v>
       </c>
       <c r="O23" t="n">
-        <v>-9.217507034666335</v>
+        <v>-9.181552083453541</v>
       </c>
       <c r="P23" t="n">
-        <v>-8.694090773218507</v>
+        <v>-8.516333419208243</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.192109040480306</v>
+        <v>-9.207439137258032</v>
       </c>
       <c r="R23" t="n">
-        <v>0.7449290015840223</v>
+        <v>0.8160704528686251</v>
       </c>
       <c r="S23" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8802912712097168</v>
+        <v>0.878545093536377</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02236539081066209</v>
+        <v>0.01949497063857316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007309055328369141</v>
+        <v>0.009477424621582031</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001253706841587175</v>
+        <v>0.002256693785775209</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': None, 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 101}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': None, 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 101}</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1936,27 +1936,27 @@
         <v>0.8553532127870948</v>
       </c>
       <c r="S24" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3290120124816894</v>
+        <v>0.2712501525878906</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00657633362326952</v>
+        <v>0.01624569757801571</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01347441673278809</v>
+        <v>0.01247463226318359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003514616287914472</v>
+        <v>0.002372964586164754</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1974,52 +1974,52 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 192}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 192}</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>-8.223113920386302</v>
+        <v>-8.325324299820736</v>
       </c>
       <c r="M25" t="n">
-        <v>-9.079020912110508</v>
+        <v>-9.263653810286748</v>
       </c>
       <c r="N25" t="n">
-        <v>-10.63049200855002</v>
+        <v>-10.4931030059836</v>
       </c>
       <c r="O25" t="n">
-        <v>-9.121027657655343</v>
+        <v>-9.097306637779081</v>
       </c>
       <c r="P25" t="n">
-        <v>-8.720023070727985</v>
+        <v>-8.574072350382796</v>
       </c>
       <c r="Q25" t="n">
-        <v>-9.154735513886031</v>
+        <v>-9.15069202085059</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8051856747046664</v>
+        <v>0.7525157456548652</v>
       </c>
       <c r="S25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1867557525634766</v>
+        <v>0.160759162902832</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007076189637442044</v>
+        <v>0.01034511137532378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007235288619995117</v>
+        <v>0.007434225082397461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0008832579418109491</v>
+        <v>0.000956347243545415</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2037,52 +2037,52 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 94}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 94}</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>-8.089921250602538</v>
+        <v>-8.292266464063186</v>
       </c>
       <c r="M26" t="n">
-        <v>-9.202194823838852</v>
+        <v>-9.10081761214345</v>
       </c>
       <c r="N26" t="n">
-        <v>-10.71451800605173</v>
+        <v>-10.5443021921073</v>
       </c>
       <c r="O26" t="n">
-        <v>-9.263061813782921</v>
+        <v>-9.297965632809841</v>
       </c>
       <c r="P26" t="n">
-        <v>-8.742434943178226</v>
+        <v>-8.753515412235231</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.202426167490852</v>
+        <v>-9.197773462671801</v>
       </c>
       <c r="R26" t="n">
-        <v>0.8647956498397608</v>
+        <v>0.7549684320566917</v>
       </c>
       <c r="S26" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2157790660858154</v>
+        <v>0.1562169551849365</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006064532077199859</v>
+        <v>0.01395526315581415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00771021842956543</v>
+        <v>0.00940709114074707</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001183146168047239</v>
+        <v>0.002776767373025223</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2100,52 +2100,52 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 93}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 93}</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>-8.493654508716046</v>
+        <v>-8.374304323774117</v>
       </c>
       <c r="M27" t="n">
-        <v>-9.097745821480322</v>
+        <v>-9.283033379803518</v>
       </c>
       <c r="N27" t="n">
-        <v>-10.4804155901175</v>
+        <v>-10.54487216274513</v>
       </c>
       <c r="O27" t="n">
-        <v>-9.339882922872643</v>
+        <v>-9.157834771990062</v>
       </c>
       <c r="P27" t="n">
-        <v>-8.982099682926179</v>
+        <v>-8.58393354344283</v>
       </c>
       <c r="Q27" t="n">
-        <v>-9.278759705222537</v>
+        <v>-9.188795636351133</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6610410392640381</v>
+        <v>0.758687962544634</v>
       </c>
       <c r="S27" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2020179271697998</v>
+        <v>0.2809073448181152</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007699002633371057</v>
+        <v>0.01595632110556248</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01074428558349609</v>
+        <v>0.01195855140686035</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001703434949555816</v>
+        <v>0.002001609464731399</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2163,52 +2163,52 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 178}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 178}</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>-8.423888878543998</v>
+        <v>-8.375361036108727</v>
       </c>
       <c r="M28" t="n">
-        <v>-9.375679715122887</v>
+        <v>-9.240927876443671</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.64860735632071</v>
+        <v>-10.60859729878667</v>
       </c>
       <c r="O28" t="n">
-        <v>-9.152307940046981</v>
+        <v>-9.236302929545403</v>
       </c>
       <c r="P28" t="n">
-        <v>-8.71609856440281</v>
+        <v>-8.635741780582121</v>
       </c>
       <c r="Q28" t="n">
-        <v>-9.263316490887476</v>
+        <v>-9.219386184293318</v>
       </c>
       <c r="R28" t="n">
-        <v>0.76786266347621</v>
+        <v>0.7724865024262748</v>
       </c>
       <c r="S28" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.06502552032470703</v>
+        <v>0.07813816070556641</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0019937734106365</v>
+        <v>0.005028867094217604</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00494842529296875</v>
+        <v>0.006615638732910156</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0005680589184306798</v>
+        <v>0.004014102294078473</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2226,52 +2226,52 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 52}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 52}</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>-8.446520080990842</v>
+        <v>-8.206168623080018</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.438171684644589</v>
+        <v>-9.287263161571399</v>
       </c>
       <c r="N29" t="n">
-        <v>-10.68968972579353</v>
+        <v>-10.53772927130259</v>
       </c>
       <c r="O29" t="n">
-        <v>-9.361652042542699</v>
+        <v>-9.348389357295906</v>
       </c>
       <c r="P29" t="n">
-        <v>-8.72646681400906</v>
+        <v>-8.607775031550451</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.332500069596144</v>
+        <v>-9.197465088960074</v>
       </c>
       <c r="R29" t="n">
-        <v>0.7753988570702595</v>
+        <v>0.7946764063644675</v>
       </c>
       <c r="S29" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8156588077545166</v>
+        <v>0.8078634738922119</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01071868207238734</v>
+        <v>0.02310974116061366</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006552886962890625</v>
+        <v>0.008920431137084961</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001932471874534456</v>
+        <v>0.001399042115538499</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
@@ -2285,29 +2285,29 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 100}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>-8.48887668427891</v>
+        <v>-8.499029674538244</v>
       </c>
       <c r="M30" t="n">
-        <v>-8.863396490424854</v>
+        <v>-8.84960767208894</v>
       </c>
       <c r="N30" t="n">
-        <v>-10.87335096711743</v>
+        <v>-10.87424359178027</v>
       </c>
       <c r="O30" t="n">
-        <v>-9.334758067449389</v>
+        <v>-9.344870011164016</v>
       </c>
       <c r="P30" t="n">
-        <v>-8.862150323951171</v>
+        <v>-8.85597231559823</v>
       </c>
       <c r="Q30" t="n">
-        <v>-9.284506506644352</v>
+        <v>-9.28474465303394</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8385340951918573</v>
+        <v>0.8391257202510807</v>
       </c>
       <c r="S30" t="n">
         <v>76</v>
@@ -2315,22 +2315,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7848981857299805</v>
+        <v>1.348105525970459</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0187743112032714</v>
+        <v>0.09551617057238858</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008289670944213868</v>
+        <v>0.007971668243408203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001350438397351374</v>
+        <v>0.001161609637014954</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
@@ -2344,52 +2344,52 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 111}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 111}</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>-9.850177376987093</v>
+        <v>-14.7143363398877</v>
       </c>
       <c r="M31" t="n">
-        <v>-11.12891656600718</v>
+        <v>-12.38666535776033</v>
       </c>
       <c r="N31" t="n">
-        <v>-12.89600654256078</v>
+        <v>-14.74354728062028</v>
       </c>
       <c r="O31" t="n">
-        <v>-10.40114231564742</v>
+        <v>-15.49940713198674</v>
       </c>
       <c r="P31" t="n">
-        <v>-9.57303574028427</v>
+        <v>-13.55704446738675</v>
       </c>
       <c r="Q31" t="n">
-        <v>-10.76985570829735</v>
+        <v>-14.18020011552836</v>
       </c>
       <c r="R31" t="n">
-        <v>1.188577124499229</v>
+        <v>1.090693226897078</v>
       </c>
       <c r="S31" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2936211109161377</v>
+        <v>0.2580125331878662</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007525181122778583</v>
+        <v>0.01292671826966839</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01229391098022461</v>
+        <v>0.01185626983642578</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002626421861917177</v>
+        <v>0.002261906598315327</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2407,52 +2407,52 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(19), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 180}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 180}</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>-8.464865839520536</v>
+        <v>-8.405676657908206</v>
       </c>
       <c r="M32" t="n">
-        <v>-8.97247525251376</v>
+        <v>-9.168566424579227</v>
       </c>
       <c r="N32" t="n">
-        <v>-10.60788596428352</v>
+        <v>-10.57304085355944</v>
       </c>
       <c r="O32" t="n">
-        <v>-9.081609741250107</v>
+        <v>-9.132725410289328</v>
       </c>
       <c r="P32" t="n">
-        <v>-8.587352612788203</v>
+        <v>-8.603070491200734</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.142837882071223</v>
+        <v>-9.176615967507386</v>
       </c>
       <c r="R32" t="n">
-        <v>0.7677692581554496</v>
+        <v>0.7583265089678511</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.08185434341430664</v>
+        <v>0.08391065597534179</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005765702219326273</v>
+        <v>0.005242032316927128</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005164670944213867</v>
+        <v>0.005205392837524414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0006636228644446775</v>
+        <v>0.0007191863934086042</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2470,52 +2470,52 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 51}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 51}</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>-8.355330900697043</v>
+        <v>-8.234989947199381</v>
       </c>
       <c r="M33" t="n">
-        <v>-9.246882290113955</v>
+        <v>-9.184818680162968</v>
       </c>
       <c r="N33" t="n">
-        <v>-10.58360909607002</v>
+        <v>-10.59191511820337</v>
       </c>
       <c r="O33" t="n">
-        <v>-9.382721835783336</v>
+        <v>-9.346284007512683</v>
       </c>
       <c r="P33" t="n">
-        <v>-8.577817860455639</v>
+        <v>-8.585365279967606</v>
       </c>
       <c r="Q33" t="n">
-        <v>-9.229272396623999</v>
+        <v>-9.188674606609201</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7805448718928029</v>
+        <v>0.8083855637017945</v>
       </c>
       <c r="S33" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.615566682815552</v>
+        <v>2.726378393173218</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08264314718136372</v>
+        <v>0.1770912935283025</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01248354911804199</v>
+        <v>0.01259140968322754</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002489915037797203</v>
+        <v>0.00219297853545294</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
@@ -2529,52 +2529,52 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 178}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 178}</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>-16.60074690512917</v>
+        <v>-16.51498699641089</v>
       </c>
       <c r="M34" t="n">
-        <v>-17.39589476267381</v>
+        <v>-16.44777389574943</v>
       </c>
       <c r="N34" t="n">
-        <v>-18.96479662097972</v>
+        <v>-19.0276291981902</v>
       </c>
       <c r="O34" t="n">
-        <v>-17.09089700718605</v>
+        <v>-16.72721172663801</v>
       </c>
       <c r="P34" t="n">
-        <v>-13.32032393396565</v>
+        <v>-12.83820799889578</v>
       </c>
       <c r="Q34" t="n">
-        <v>-16.67453184598688</v>
+        <v>-16.31116196317686</v>
       </c>
       <c r="R34" t="n">
-        <v>1.854464455262905</v>
+        <v>1.983628410105421</v>
       </c>
       <c r="S34" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2049243927001953</v>
+        <v>0.1984033107757568</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01119723776542213</v>
+        <v>0.007616465603933168</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009223699569702148</v>
+        <v>0.007966947555541993</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001371354651906841</v>
+        <v>0.001381652253473485</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2592,52 +2592,52 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 117}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 117}</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>-8.288025468182378</v>
+        <v>-8.351164941472826</v>
       </c>
       <c r="M35" t="n">
-        <v>-9.09316236850861</v>
+        <v>-9.036792889917045</v>
       </c>
       <c r="N35" t="n">
-        <v>-10.53679516308574</v>
+        <v>-10.58292917740977</v>
       </c>
       <c r="O35" t="n">
-        <v>-9.3428080352924</v>
+        <v>-9.344432408990832</v>
       </c>
       <c r="P35" t="n">
-        <v>-8.522614604032464</v>
+        <v>-8.551066391970542</v>
       </c>
       <c r="Q35" t="n">
-        <v>-9.156681127820317</v>
+        <v>-9.173277161952203</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7874002311932172</v>
+        <v>0.78715381281273</v>
       </c>
       <c r="S35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3665685653686523</v>
+        <v>0.4595641613006592</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008924115806072174</v>
+        <v>0.02805906703889898</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00714421272277832</v>
+        <v>0.007142782211303711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001359178194863632</v>
+        <v>0.001569187410709136</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
@@ -2651,52 +2651,52 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 73}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 73}</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>-8.512968952885478</v>
+        <v>-8.565290721280546</v>
       </c>
       <c r="M36" t="n">
-        <v>-9.086621935066667</v>
+        <v>-8.948023559382053</v>
       </c>
       <c r="N36" t="n">
-        <v>-10.73852656502575</v>
+        <v>-10.59424729177687</v>
       </c>
       <c r="O36" t="n">
-        <v>-9.131701348644629</v>
+        <v>-9.229076728579665</v>
       </c>
       <c r="P36" t="n">
-        <v>-8.57790125407387</v>
+        <v>-8.61874045756295</v>
       </c>
       <c r="Q36" t="n">
-        <v>-9.209544011139279</v>
+        <v>-9.191075751716415</v>
       </c>
       <c r="R36" t="n">
-        <v>0.805375235690038</v>
+        <v>0.741428810679499</v>
       </c>
       <c r="S36" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3427428245544434</v>
+        <v>0.2990659236907959</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01294230684008655</v>
+        <v>0.06081872953766298</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01213774681091309</v>
+        <v>0.0130988597869873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001954645087103634</v>
+        <v>0.002302909240868164</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2714,52 +2714,52 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 193}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 193}</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>-8.301084204936027</v>
+        <v>-8.382482570517308</v>
       </c>
       <c r="M37" t="n">
-        <v>-9.238233596798228</v>
+        <v>-9.303356485021638</v>
       </c>
       <c r="N37" t="n">
-        <v>-10.5016438405436</v>
+        <v>-10.51144753699923</v>
       </c>
       <c r="O37" t="n">
-        <v>-9.162914106422024</v>
+        <v>-9.112554610551019</v>
       </c>
       <c r="P37" t="n">
-        <v>-8.674714029472792</v>
+        <v>-8.625997229758521</v>
       </c>
       <c r="Q37" t="n">
-        <v>-9.175717955634534</v>
+        <v>-9.187167686569543</v>
       </c>
       <c r="R37" t="n">
-        <v>0.745404685805915</v>
+        <v>0.739623483651818</v>
       </c>
       <c r="S37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.235893154144287</v>
+        <v>0.7386023521423339</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02813366756571284</v>
+        <v>0.0126464899232002</v>
       </c>
       <c r="C38" t="n">
-        <v>0.009202766418457031</v>
+        <v>0.008602476119995118</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001760313984546945</v>
+        <v>0.0003915275207252417</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
@@ -2773,52 +2773,52 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 142}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 6, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 142}</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>-8.331804448465686</v>
+        <v>-8.467931121722369</v>
       </c>
       <c r="M38" t="n">
-        <v>-8.969891777443751</v>
+        <v>-9.087634904130077</v>
       </c>
       <c r="N38" t="n">
-        <v>-10.72533437930467</v>
+        <v>-10.82332883071163</v>
       </c>
       <c r="O38" t="n">
-        <v>-9.318505742034077</v>
+        <v>-9.216151886893234</v>
       </c>
       <c r="P38" t="n">
-        <v>-8.921888355262986</v>
+        <v>-8.627319272448503</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.253484940502235</v>
+        <v>-9.244473203181162</v>
       </c>
       <c r="R38" t="n">
-        <v>0.8013045341206377</v>
+        <v>0.8369088385344319</v>
       </c>
       <c r="S38" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.097113084793091</v>
+        <v>1.352409219741821</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03685531812550782</v>
+        <v>0.04124990784303022</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01357526779174805</v>
+        <v>0.01316308975219727</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002115376511020043</v>
+        <v>0.002267577800724847</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
@@ -2832,52 +2832,52 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 196}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 196}</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>-8.293289262982404</v>
+        <v>-8.369569942011386</v>
       </c>
       <c r="M39" t="n">
-        <v>-8.976270426708469</v>
+        <v>-9.026541565840525</v>
       </c>
       <c r="N39" t="n">
-        <v>-10.71578452704874</v>
+        <v>-10.76387019362958</v>
       </c>
       <c r="O39" t="n">
-        <v>-9.423910249212796</v>
+        <v>-9.225446460401299</v>
       </c>
       <c r="P39" t="n">
-        <v>-8.99033333341472</v>
+        <v>-8.581221376137769</v>
       </c>
       <c r="Q39" t="n">
-        <v>-9.279917559873423</v>
+        <v>-9.193329907604111</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8039830649867535</v>
+        <v>0.8424611503384565</v>
       </c>
       <c r="S39" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2546665668487549</v>
+        <v>0.5314282894134521</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01967093153517232</v>
+        <v>0.01260688177603051</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01239652633666992</v>
+        <v>0.01395773887634277</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003632026607389977</v>
+        <v>0.001362503860674032</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2895,52 +2895,52 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 177}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 177}</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>-8.400822185584618</v>
+        <v>-8.359220133255048</v>
       </c>
       <c r="M40" t="n">
-        <v>-9.257446218007487</v>
+        <v>-9.436275787951232</v>
       </c>
       <c r="N40" t="n">
-        <v>-10.59857909268791</v>
+        <v>-10.39175780654633</v>
       </c>
       <c r="O40" t="n">
-        <v>-9.154211854599277</v>
+        <v>-9.369208807835484</v>
       </c>
       <c r="P40" t="n">
-        <v>-8.62223050889974</v>
+        <v>-8.94374646294048</v>
       </c>
       <c r="Q40" t="n">
-        <v>-9.206657971955806</v>
+        <v>-9.300041799705715</v>
       </c>
       <c r="R40" t="n">
-        <v>0.7659897155541342</v>
+        <v>0.6674248106300185</v>
       </c>
       <c r="S40" t="n">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1639164924621582</v>
+        <v>0.1695367813110352</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01353690988771002</v>
+        <v>0.004322957985453145</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007479810714721679</v>
+        <v>0.007751989364624024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0009621391564015514</v>
+        <v>0.0012771350594975</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2958,52 +2958,52 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 91}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 91}</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>-8.373567505466207</v>
+        <v>-8.326293746307904</v>
       </c>
       <c r="M41" t="n">
-        <v>-9.086665622295811</v>
+        <v>-9.096383050280838</v>
       </c>
       <c r="N41" t="n">
-        <v>-10.51256759373696</v>
+        <v>-10.68017613317869</v>
       </c>
       <c r="O41" t="n">
-        <v>-9.213595903438012</v>
+        <v>-9.182194161821693</v>
       </c>
       <c r="P41" t="n">
-        <v>-8.60687888170799</v>
+        <v>-8.533129481160472</v>
       </c>
       <c r="Q41" t="n">
-        <v>-9.158655101328996</v>
+        <v>-9.16363531454992</v>
       </c>
       <c r="R41" t="n">
-        <v>0.7432495601940253</v>
+        <v>0.8250384064118127</v>
       </c>
       <c r="S41" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.06039071083068848</v>
+        <v>0.07306003570556641</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002826348871603253</v>
+        <v>0.003437311703590071</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004348087310791016</v>
+        <v>0.005355358123779297</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0002768878620713366</v>
+        <v>0.0005200980070512402</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3021,52 +3021,52 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 51}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 51}</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>-8.512947437723358</v>
+        <v>-8.380242190695125</v>
       </c>
       <c r="M42" t="n">
-        <v>-9.422621294255553</v>
+        <v>-9.376686134143235</v>
       </c>
       <c r="N42" t="n">
-        <v>-10.63454537861434</v>
+        <v>-10.6374023097783</v>
       </c>
       <c r="O42" t="n">
-        <v>-9.34381946748524</v>
+        <v>-9.444619013833309</v>
       </c>
       <c r="P42" t="n">
-        <v>-8.655396301827526</v>
+        <v>-8.590933994322898</v>
       </c>
       <c r="Q42" t="n">
-        <v>-9.313865975981205</v>
+        <v>-9.285976728554573</v>
       </c>
       <c r="R42" t="n">
-        <v>0.7525917661190289</v>
+        <v>0.7953849543468</v>
       </c>
       <c r="S42" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2401449680328369</v>
+        <v>0.2725637435913086</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008261874340964618</v>
+        <v>0.008154691327972434</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009743309020996094</v>
+        <v>0.01110072135925293</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001394781263900232</v>
+        <v>0.001066134367968951</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3084,52 +3084,52 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 148}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 148}</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>-8.314415725447187</v>
+        <v>-8.283303526180809</v>
       </c>
       <c r="M43" t="n">
-        <v>-9.167275885196862</v>
+        <v>-8.973991745787856</v>
       </c>
       <c r="N43" t="n">
-        <v>-10.59336588928742</v>
+        <v>-10.56741932347472</v>
       </c>
       <c r="O43" t="n">
-        <v>-9.253845649204012</v>
+        <v>-9.206625586262231</v>
       </c>
       <c r="P43" t="n">
-        <v>-8.606627292410248</v>
+        <v>-8.686233639888817</v>
       </c>
       <c r="Q43" t="n">
-        <v>-9.187106088309145</v>
+        <v>-9.143514764318887</v>
       </c>
       <c r="R43" t="n">
-        <v>0.7849787431149626</v>
+        <v>0.7757956720969869</v>
       </c>
       <c r="S43" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3130893230438233</v>
+        <v>0.3086124897003174</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008030688831456774</v>
+        <v>0.004131571577726689</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01264166831970215</v>
+        <v>0.01107325553894043</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001719909973634219</v>
+        <v>0.001383508273097225</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3147,29 +3147,29 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 162}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 162}</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>-8.308355355795911</v>
+        <v>-8.295674097263504</v>
       </c>
       <c r="M44" t="n">
-        <v>-9.17004936637937</v>
+        <v>-9.143083893929232</v>
       </c>
       <c r="N44" t="n">
-        <v>-10.48964893722833</v>
+        <v>-10.57199171108474</v>
       </c>
       <c r="O44" t="n">
-        <v>-9.270017820544066</v>
+        <v>-9.198275435311773</v>
       </c>
       <c r="P44" t="n">
-        <v>-8.705830669815409</v>
+        <v>-8.732572462029383</v>
       </c>
       <c r="Q44" t="n">
-        <v>-9.188780429952619</v>
+        <v>-9.188319519923727</v>
       </c>
       <c r="R44" t="n">
-        <v>0.7358801562231266</v>
+        <v>0.7643579457398549</v>
       </c>
       <c r="S44" t="n">
         <v>21</v>
@@ -3177,22 +3177,22 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3034656047821045</v>
+        <v>0.2144021034240723</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007438208019165768</v>
+        <v>0.00464400859356393</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01032257080078125</v>
+        <v>0.01145830154418945</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001792980145705941</v>
+        <v>0.0017886418183375</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3210,52 +3210,52 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 161}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 161}</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>-8.393905594707471</v>
+        <v>-8.44529862371855</v>
       </c>
       <c r="M45" t="n">
-        <v>-9.051470858780483</v>
+        <v>-9.217038845394391</v>
       </c>
       <c r="N45" t="n">
-        <v>-10.57729058596869</v>
+        <v>-10.55749007050044</v>
       </c>
       <c r="O45" t="n">
-        <v>-9.343522052394901</v>
+        <v>-8.994152767211451</v>
       </c>
       <c r="P45" t="n">
-        <v>-8.770078511026952</v>
+        <v>-8.668993313647697</v>
       </c>
       <c r="Q45" t="n">
-        <v>-9.227253520575697</v>
+        <v>-9.176594724094505</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7443783646129014</v>
+        <v>0.7394925193154114</v>
       </c>
       <c r="S45" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.298273658752441</v>
+        <v>0.8811788082122802</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06473380636384417</v>
+        <v>0.00590726978485659</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00830545425415039</v>
+        <v>0.007586193084716797</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001936791014463033</v>
+        <v>0.0001591491716362943</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
@@ -3269,52 +3269,52 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 18, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 131}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 18, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 131}</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>-13.26468968975398</v>
+        <v>-10.01425042810833</v>
       </c>
       <c r="M46" t="n">
-        <v>-11.6286844468186</v>
+        <v>-11.30335906706446</v>
       </c>
       <c r="N46" t="n">
-        <v>-14.3518734059802</v>
+        <v>-12.22929170135234</v>
       </c>
       <c r="O46" t="n">
-        <v>-13.38979056536564</v>
+        <v>-10.40114231564742</v>
       </c>
       <c r="P46" t="n">
-        <v>-10.28149287593578</v>
+        <v>-9.57303574028427</v>
       </c>
       <c r="Q46" t="n">
-        <v>-12.58330619677084</v>
+        <v>-10.70421585049136</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44583385796874</v>
+        <v>0.9520822693633175</v>
       </c>
       <c r="S46" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.215812587738037</v>
+        <v>1.2097412109375</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07283302107310859</v>
+        <v>0.07001021792670897</v>
       </c>
       <c r="C47" t="n">
-        <v>0.009466981887817383</v>
+        <v>0.008581638336181641</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00165182732285294</v>
+        <v>0.00132219111949686</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 117}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 117}</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3353,27 +3353,27 @@
         <v>1.148859412919991</v>
       </c>
       <c r="S47" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.375389528274536</v>
+        <v>1.771521282196045</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03122060186406656</v>
+        <v>0.04624570286655498</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01348762512207031</v>
+        <v>0.01299643516540527</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001322161613013286</v>
+        <v>0.002216010856243929</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
@@ -3387,52 +3387,52 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 177}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 177}</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>-8.358825656049016</v>
+        <v>-8.368760720600687</v>
       </c>
       <c r="M48" t="n">
-        <v>-8.959697742695971</v>
+        <v>-8.991055409560634</v>
       </c>
       <c r="N48" t="n">
-        <v>-10.68470103117447</v>
+        <v>-10.73073924143081</v>
       </c>
       <c r="O48" t="n">
-        <v>-9.295765957597125</v>
+        <v>-9.31979055147233</v>
       </c>
       <c r="P48" t="n">
-        <v>-8.735091392869572</v>
+        <v>-8.935706468463815</v>
       </c>
       <c r="Q48" t="n">
-        <v>-9.20681635607723</v>
+        <v>-9.269210478305656</v>
       </c>
       <c r="R48" t="n">
-        <v>0.7993416568432918</v>
+        <v>0.7922158294611097</v>
       </c>
       <c r="S48" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8268997669219971</v>
+        <v>1.030257749557495</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02108123986480795</v>
+        <v>0.02509979699878117</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0106048583984375</v>
+        <v>0.01063036918640137</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002057780814497641</v>
+        <v>0.001701703170943939</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
@@ -3446,52 +3446,52 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 14, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 158}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 14, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 158}</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>-8.526042097523339</v>
+        <v>-8.490315373888791</v>
       </c>
       <c r="M49" t="n">
-        <v>-9.060696395414823</v>
+        <v>-9.010213947571458</v>
       </c>
       <c r="N49" t="n">
-        <v>-10.74597863008261</v>
+        <v>-10.67132708816475</v>
       </c>
       <c r="O49" t="n">
-        <v>-9.189495515507561</v>
+        <v>-9.237960004346634</v>
       </c>
       <c r="P49" t="n">
-        <v>-8.542116351722502</v>
+        <v>-8.624274659222845</v>
       </c>
       <c r="Q49" t="n">
-        <v>-9.212865798050169</v>
+        <v>-9.206818214638895</v>
       </c>
       <c r="R49" t="n">
-        <v>0.8118827832022681</v>
+        <v>0.7793770081662719</v>
       </c>
       <c r="S49" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.044050693511963</v>
+        <v>0.8795016288757325</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04973518546079284</v>
+        <v>0.01328128386568754</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00760354995727539</v>
+        <v>0.00755157470703125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009796588906477144</v>
+        <v>0.0006459504549551559</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
@@ -3505,29 +3505,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 77}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 77}</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>-8.580051421094545</v>
+        <v>-8.451772038201451</v>
       </c>
       <c r="M50" t="n">
-        <v>-9.178856193610997</v>
+        <v>-9.0992301563232</v>
       </c>
       <c r="N50" t="n">
-        <v>-10.76918640903075</v>
+        <v>-10.85266318890437</v>
       </c>
       <c r="O50" t="n">
-        <v>-9.368769718360507</v>
+        <v>-9.437687927735302</v>
       </c>
       <c r="P50" t="n">
-        <v>-9.103123681423972</v>
+        <v>-9.06974050993699</v>
       </c>
       <c r="Q50" t="n">
-        <v>-9.399997484704155</v>
+        <v>-9.382218764220264</v>
       </c>
       <c r="R50" t="n">
-        <v>0.7328031873318683</v>
+        <v>0.8010917495198926</v>
       </c>
       <c r="S50" t="n">
         <v>87</v>
@@ -3535,16 +3535,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.139305305480957</v>
+        <v>0.1349270820617676</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01290649341661571</v>
+        <v>0.006948437972399653</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006403779983520508</v>
+        <v>0.006524419784545899</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001099059788530755</v>
+        <v>0.0009335831604632523</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -3591,21 +3591,21 @@
         <v>0.7495879707431119</v>
       </c>
       <c r="S51" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.3707769870758056</v>
+        <v>0.3546206474304199</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02728664011753201</v>
+        <v>0.008092983553341936</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0108212947845459</v>
+        <v>0.01100859642028809</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001799469941961883</v>
+        <v>0.001534763055333751</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -3652,27 +3652,27 @@
         <v>0.7303939781202344</v>
       </c>
       <c r="S52" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2571306705474853</v>
+        <v>0.2434541702270508</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02339532080729508</v>
+        <v>0.004323722004528769</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00708622932434082</v>
+        <v>0.008000421524047851</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001123884651601872</v>
+        <v>0.001014349029096416</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3690,52 +3690,52 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 95}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 95}</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>-8.386030525815684</v>
+        <v>-8.413524525223188</v>
       </c>
       <c r="M53" t="n">
-        <v>-9.185907199108064</v>
+        <v>-9.19278874691398</v>
       </c>
       <c r="N53" t="n">
-        <v>-10.57564257597282</v>
+        <v>-10.62481018772493</v>
       </c>
       <c r="O53" t="n">
-        <v>-9.57178057974027</v>
+        <v>-9.593776958123657</v>
       </c>
       <c r="P53" t="n">
-        <v>-8.926448114220452</v>
+        <v>-8.927265883459961</v>
       </c>
       <c r="Q53" t="n">
-        <v>-9.329161798971459</v>
+        <v>-9.350433260289144</v>
       </c>
       <c r="R53" t="n">
-        <v>0.7327721325061221</v>
+        <v>0.7436360813878161</v>
       </c>
       <c r="S53" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4963151454925537</v>
+        <v>0.4816122055053711</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01360699100669902</v>
+        <v>0.009064193971968242</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0142878532409668</v>
+        <v>0.01137204170227051</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002401435509159633</v>
+        <v>0.0005705174049839741</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3753,52 +3753,52 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 177}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 177}</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>-8.350863974951613</v>
+        <v>-8.360453883717607</v>
       </c>
       <c r="M54" t="n">
-        <v>-9.154708360288403</v>
+        <v>-9.150386328984979</v>
       </c>
       <c r="N54" t="n">
-        <v>-10.4742877569477</v>
+        <v>-10.47383984421811</v>
       </c>
       <c r="O54" t="n">
-        <v>-9.276339421472525</v>
+        <v>-9.295757147246867</v>
       </c>
       <c r="P54" t="n">
-        <v>-8.846854003654135</v>
+        <v>-8.676592014530385</v>
       </c>
       <c r="Q54" t="n">
-        <v>-9.220610703462874</v>
+        <v>-9.191405843739592</v>
       </c>
       <c r="R54" t="n">
-        <v>0.7036061974839662</v>
+        <v>0.7228724921211405</v>
       </c>
       <c r="S54" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1398176193237305</v>
+        <v>0.08763608932495118</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004752671776111544</v>
+        <v>0.001983280708244021</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006341409683227539</v>
+        <v>0.0060791015625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001217051791418522</v>
+        <v>0.001048838081963451</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3816,52 +3816,52 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 73}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 73}</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>-8.525963309092537</v>
+        <v>-8.442071664641714</v>
       </c>
       <c r="M55" t="n">
-        <v>-9.35955363137742</v>
+        <v>-9.430263302586425</v>
       </c>
       <c r="N55" t="n">
-        <v>-10.49393342617427</v>
+        <v>-10.74855138743744</v>
       </c>
       <c r="O55" t="n">
-        <v>-9.424935595825231</v>
+        <v>-9.187143480330825</v>
       </c>
       <c r="P55" t="n">
-        <v>-8.945928958237442</v>
+        <v>-8.792782231599269</v>
       </c>
       <c r="Q55" t="n">
-        <v>-9.350062984141379</v>
+        <v>-9.320162413319135</v>
       </c>
       <c r="R55" t="n">
-        <v>0.6567495951777607</v>
+        <v>0.7898461271307597</v>
       </c>
       <c r="S55" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.92753324508667</v>
+        <v>2.765850591659546</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06672473327179712</v>
+        <v>0.0604607824251566</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01198968887329102</v>
+        <v>0.01191120147705078</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002736956908131593</v>
+        <v>0.002044649496479549</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
@@ -3875,29 +3875,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 179}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 179}</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>-17.41131658988304</v>
+        <v>-17.14156517533556</v>
       </c>
       <c r="M56" t="n">
-        <v>-15.63516426311563</v>
+        <v>-15.70353395019797</v>
       </c>
       <c r="N56" t="n">
-        <v>-18.8455335339254</v>
+        <v>-18.57116803729832</v>
       </c>
       <c r="O56" t="n">
-        <v>-17.65295336188405</v>
+        <v>-17.67062385985609</v>
       </c>
       <c r="P56" t="n">
-        <v>-13.60763865015509</v>
+        <v>-13.15590108561242</v>
       </c>
       <c r="Q56" t="n">
-        <v>-16.63052127979265</v>
+        <v>-16.44855842166007</v>
       </c>
       <c r="R56" t="n">
-        <v>1.827010834555714</v>
+        <v>1.890810814014922</v>
       </c>
       <c r="S56" t="n">
         <v>98</v>
@@ -3905,16 +3905,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2103382110595703</v>
+        <v>0.203049898147583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01457550185948379</v>
+        <v>0.002271711935640564</v>
       </c>
       <c r="C57" t="n">
-        <v>0.007099342346191406</v>
+        <v>0.007674551010131836</v>
       </c>
       <c r="D57" t="n">
-        <v>0.00134757843527994</v>
+        <v>0.001249146719732249</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -3961,27 +3961,27 @@
         <v>0.7218585541555181</v>
       </c>
       <c r="S57" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.6306961059570313</v>
+        <v>0.4621877670288086</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02883803067148945</v>
+        <v>0.003475509080156752</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0058868408203125</v>
+        <v>0.006812906265258789</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001013007053469006</v>
+        <v>0.00206936816528744</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
@@ -3995,52 +3995,52 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(19), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 62}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 62}</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>-8.620054732348832</v>
+        <v>-8.570835794620182</v>
       </c>
       <c r="M58" t="n">
-        <v>-8.912978589621893</v>
+        <v>-8.915718366481336</v>
       </c>
       <c r="N58" t="n">
-        <v>-10.71210313514863</v>
+        <v>-10.73578420343694</v>
       </c>
       <c r="O58" t="n">
-        <v>-9.254880100941749</v>
+        <v>-9.327087470221683</v>
       </c>
       <c r="P58" t="n">
-        <v>-9.170638910275294</v>
+        <v>-8.820280134599161</v>
       </c>
       <c r="Q58" t="n">
-        <v>-9.334131093667279</v>
+        <v>-9.27394119387186</v>
       </c>
       <c r="R58" t="n">
-        <v>0.7237529747697112</v>
+        <v>0.7704931751190396</v>
       </c>
       <c r="S58" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.03770842552185</v>
+        <v>0.7323882102966308</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08377961493225547</v>
+        <v>0.008858440842061749</v>
       </c>
       <c r="C59" t="n">
-        <v>0.006328105926513672</v>
+        <v>0.005760669708251953</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0008143651229614094</v>
+        <v>0.000922085116890436</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
@@ -4054,52 +4054,52 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(19), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 14, 'regressor__n_estimators': 69}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 14, 'regressor__n_estimators': 69}</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>-16.25114850491142</v>
+        <v>-14.00022791565886</v>
       </c>
       <c r="M59" t="n">
-        <v>-17.5442424539104</v>
+        <v>-12.23917063349665</v>
       </c>
       <c r="N59" t="n">
-        <v>-17.11181629422427</v>
+        <v>-15.53719913191607</v>
       </c>
       <c r="O59" t="n">
-        <v>-16.33208633873017</v>
+        <v>-13.87005187922998</v>
       </c>
       <c r="P59" t="n">
-        <v>-14.07795245230792</v>
+        <v>-11.19165185488177</v>
       </c>
       <c r="Q59" t="n">
-        <v>-16.26344920881684</v>
+        <v>-13.36766028303667</v>
       </c>
       <c r="R59" t="n">
-        <v>1.195108069080809</v>
+        <v>1.507842134381712</v>
       </c>
       <c r="S59" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2097794055938721</v>
+        <v>0.2142294883728027</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02633374216426091</v>
+        <v>0.003831540538445228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01112022399902344</v>
+        <v>0.01089239120483398</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00304805577861261</v>
+        <v>0.001507846489230733</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4117,52 +4117,52 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 164}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 16, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 164}</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>-8.450903364583883</v>
+        <v>-8.273899818989838</v>
       </c>
       <c r="M60" t="n">
-        <v>-9.381340091314836</v>
+        <v>-9.193413573280566</v>
       </c>
       <c r="N60" t="n">
-        <v>-10.63521214312689</v>
+        <v>-10.67820154725334</v>
       </c>
       <c r="O60" t="n">
-        <v>-9.227823708874794</v>
+        <v>-9.273870961017362</v>
       </c>
       <c r="P60" t="n">
-        <v>-8.722508636862184</v>
+        <v>-8.674040871386222</v>
       </c>
       <c r="Q60" t="n">
-        <v>-9.283557588952519</v>
+        <v>-9.218685354385466</v>
       </c>
       <c r="R60" t="n">
-        <v>0.7546822776477101</v>
+        <v>0.8152458466128347</v>
       </c>
       <c r="S60" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1623979568481445</v>
+        <v>0.158922004699707</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01170708673488138</v>
+        <v>0.004738603999412398</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0119633674621582</v>
+        <v>0.008972501754760743</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00456438365605888</v>
+        <v>0.001622289942996393</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4180,52 +4180,52 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 119}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 119}</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>-8.263298289386631</v>
+        <v>-8.300581040397741</v>
       </c>
       <c r="M61" t="n">
-        <v>-9.293939446176916</v>
+        <v>-9.276758022182747</v>
       </c>
       <c r="N61" t="n">
-        <v>-10.56681016496157</v>
+        <v>-10.59911848552917</v>
       </c>
       <c r="O61" t="n">
-        <v>-9.278224058893672</v>
+        <v>-9.274747280826777</v>
       </c>
       <c r="P61" t="n">
-        <v>-8.656302576353891</v>
+        <v>-8.668239052194098</v>
       </c>
       <c r="Q61" t="n">
-        <v>-9.211714907154535</v>
+        <v>-9.223888776226108</v>
       </c>
       <c r="R61" t="n">
-        <v>0.7817217456201844</v>
+        <v>0.7820335400563575</v>
       </c>
       <c r="S61" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5800271034240723</v>
+        <v>0.5628754138946533</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01940224254415163</v>
+        <v>0.01430400511936196</v>
       </c>
       <c r="C62" t="n">
-        <v>0.006173181533813477</v>
+        <v>0.00571599006652832</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0008140395958452943</v>
+        <v>0.0005151824127938153</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
@@ -4239,52 +4239,52 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 57}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(9), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 57}</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>-8.482741614273213</v>
+        <v>-8.472420888473264</v>
       </c>
       <c r="M62" t="n">
-        <v>-8.875791966973715</v>
+        <v>-8.96016556986935</v>
       </c>
       <c r="N62" t="n">
-        <v>-10.77625904757344</v>
+        <v>-10.79345203975523</v>
       </c>
       <c r="O62" t="n">
-        <v>-9.515623488425856</v>
+        <v>-9.497655882437593</v>
       </c>
       <c r="P62" t="n">
-        <v>-8.963175161823864</v>
+        <v>-8.969785954158535</v>
       </c>
       <c r="Q62" t="n">
-        <v>-9.322718255814017</v>
+        <v>-9.338696066938795</v>
       </c>
       <c r="R62" t="n">
-        <v>0.7980687143980002</v>
+        <v>0.7964164559747849</v>
       </c>
       <c r="S62" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.261146020889282</v>
+        <v>1.663659238815308</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04230599485888024</v>
+        <v>0.02849169301814749</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01066889762878418</v>
+        <v>0.01178560256958008</v>
       </c>
       <c r="D63" t="n">
-        <v>0.001888877241637156</v>
+        <v>0.002589694592760781</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
@@ -4298,52 +4298,52 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 158}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': None, 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 158}</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>-8.393488116872266</v>
+        <v>-8.331023258490672</v>
       </c>
       <c r="M63" t="n">
-        <v>-8.994241449471849</v>
+        <v>-9.065716571159346</v>
       </c>
       <c r="N63" t="n">
-        <v>-10.75140220321045</v>
+        <v>-10.66592261165114</v>
       </c>
       <c r="O63" t="n">
-        <v>-9.266437168156347</v>
+        <v>-9.440466398679305</v>
       </c>
       <c r="P63" t="n">
-        <v>-8.834944421402987</v>
+        <v>-9.046883656697975</v>
       </c>
       <c r="Q63" t="n">
-        <v>-9.24810267182278</v>
+        <v>-9.310002499335686</v>
       </c>
       <c r="R63" t="n">
-        <v>0.8032131637943836</v>
+        <v>0.7671828561790149</v>
       </c>
       <c r="S63" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1745145320892334</v>
+        <v>0.1412846565246582</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01542917662824889</v>
+        <v>0.006141467471532716</v>
       </c>
       <c r="C64" t="n">
-        <v>0.008063697814941406</v>
+        <v>0.007870531082153321</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001364660692096601</v>
+        <v>0.00144603284310883</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4361,52 +4361,52 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 104}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 104}</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>-8.403033536995189</v>
+        <v>-8.408890698702445</v>
       </c>
       <c r="M64" t="n">
-        <v>-9.2422838971957</v>
+        <v>-9.188588253835446</v>
       </c>
       <c r="N64" t="n">
-        <v>-10.5092446564549</v>
+        <v>-10.58751973464222</v>
       </c>
       <c r="O64" t="n">
-        <v>-9.331625556590934</v>
+        <v>-9.164704048076704</v>
       </c>
       <c r="P64" t="n">
-        <v>-8.687723876222307</v>
+        <v>-8.632673130693441</v>
       </c>
       <c r="Q64" t="n">
-        <v>-9.234782304691807</v>
+        <v>-9.19647517319005</v>
       </c>
       <c r="R64" t="n">
-        <v>0.724536833033956</v>
+        <v>0.7581871309130476</v>
       </c>
       <c r="S64" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.3814994335174561</v>
+        <v>0.3155094146728515</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01523247498062756</v>
+        <v>0.006974024161532974</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01323518753051758</v>
+        <v>0.01208806037902832</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002200968850493124</v>
+        <v>0.001582981480092942</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4424,52 +4424,52 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 18, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 196}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 18, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 196}</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>-8.374496517736834</v>
+        <v>-8.361507233378656</v>
       </c>
       <c r="M65" t="n">
-        <v>-9.085747347726572</v>
+        <v>-9.194017749583551</v>
       </c>
       <c r="N65" t="n">
-        <v>-10.39611336184646</v>
+        <v>-10.5343176223273</v>
       </c>
       <c r="O65" t="n">
-        <v>-9.433562658046576</v>
+        <v>-9.272596062310623</v>
       </c>
       <c r="P65" t="n">
-        <v>-8.67128962114819</v>
+        <v>-8.594679912299243</v>
       </c>
       <c r="Q65" t="n">
-        <v>-9.192241901300926</v>
+        <v>-9.191423715979875</v>
       </c>
       <c r="R65" t="n">
-        <v>0.7012819806083784</v>
+        <v>0.7556221619101204</v>
       </c>
       <c r="S65" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8096570014953614</v>
+        <v>1.007094812393188</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01648666648256492</v>
+        <v>0.01918397360241924</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01110272407531738</v>
+        <v>0.01113414764404297</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001974897038349815</v>
+        <v>0.002072690630504463</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
@@ -4483,52 +4483,52 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 166}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 166}</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>-8.58384986552239</v>
+        <v>-8.567629671788476</v>
       </c>
       <c r="M66" t="n">
-        <v>-9.012049685240967</v>
+        <v>-8.926076012589704</v>
       </c>
       <c r="N66" t="n">
-        <v>-10.67764811537336</v>
+        <v>-10.56197655666478</v>
       </c>
       <c r="O66" t="n">
-        <v>-9.20583915466265</v>
+        <v>-9.241568474941346</v>
       </c>
       <c r="P66" t="n">
-        <v>-8.509376273830615</v>
+        <v>-8.571063459698596</v>
       </c>
       <c r="Q66" t="n">
-        <v>-9.197752618925994</v>
+        <v>-9.173662835136579</v>
       </c>
       <c r="R66" t="n">
-        <v>0.7842678413868613</v>
+        <v>0.7380687776021426</v>
       </c>
       <c r="S66" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.274075412750244</v>
+        <v>2.132591104507446</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0261194374798032</v>
+        <v>0.1055861182632758</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0114771842956543</v>
+        <v>0.009900236129760742</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002409964987919568</v>
+        <v>0.0003745708577802857</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
@@ -4542,52 +4542,52 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 178}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 178}</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>-9.850177376987078</v>
+        <v>-15.56296628830976</v>
       </c>
       <c r="M67" t="n">
-        <v>-11.12891656600718</v>
+        <v>-14.06943098392678</v>
       </c>
       <c r="N67" t="n">
-        <v>-12.89600654256078</v>
+        <v>-15.08147724823873</v>
       </c>
       <c r="O67" t="n">
-        <v>-10.40114231564741</v>
+        <v>-15.66106866960942</v>
       </c>
       <c r="P67" t="n">
-        <v>-9.573035740284281</v>
+        <v>-13.88328856935252</v>
       </c>
       <c r="Q67" t="n">
-        <v>-10.76985570829735</v>
+        <v>-14.85164635188744</v>
       </c>
       <c r="R67" t="n">
-        <v>1.188577124499228</v>
+        <v>0.7434434017685131</v>
       </c>
       <c r="S67" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.304189920425415</v>
+        <v>0.2616593837738037</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01206598602644959</v>
+        <v>0.009974383886823623</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01185917854309082</v>
+        <v>0.01017875671386719</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005160629947771419</v>
+        <v>0.00192993045484659</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4605,52 +4605,52 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(19), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 145}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 3, 'regressor__n_estimators': 145}</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>-8.345950336286723</v>
+        <v>-8.329063004774511</v>
       </c>
       <c r="M68" t="n">
-        <v>-9.170004846292793</v>
+        <v>-9.226157821782783</v>
       </c>
       <c r="N68" t="n">
-        <v>-10.61915802934535</v>
+        <v>-10.50826461537584</v>
       </c>
       <c r="O68" t="n">
-        <v>-9.474885354108697</v>
+        <v>-9.359035561342511</v>
       </c>
       <c r="P68" t="n">
-        <v>-8.630569444075189</v>
+        <v>-8.689633339919483</v>
       </c>
       <c r="Q68" t="n">
-        <v>-9.248113602021752</v>
+        <v>-9.222430868639025</v>
       </c>
       <c r="R68" t="n">
-        <v>0.7915236663570873</v>
+        <v>0.7421620447437439</v>
       </c>
       <c r="S68" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4243279457092285</v>
+        <v>0.3884523868560791</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007236591388474907</v>
+        <v>0.006442101322143139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01170835494995117</v>
+        <v>0.01214728355407715</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002936667920230469</v>
+        <v>0.001769032597550481</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4668,52 +4668,52 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 14, 'regressor__n_estimators': 166}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 8, 'regressor__min_samples_split': 14, 'regressor__n_estimators': 166}</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>-8.282567946426482</v>
+        <v>-8.375542058892707</v>
       </c>
       <c r="M69" t="n">
-        <v>-8.99103341699692</v>
+        <v>-9.131934433902989</v>
       </c>
       <c r="N69" t="n">
-        <v>-10.5420218358055</v>
+        <v>-10.44167295702745</v>
       </c>
       <c r="O69" t="n">
-        <v>-9.494291729220295</v>
+        <v>-9.367763436948882</v>
       </c>
       <c r="P69" t="n">
-        <v>-8.830488374011168</v>
+        <v>-8.848986513114429</v>
       </c>
       <c r="Q69" t="n">
-        <v>-9.228080660492074</v>
+        <v>-9.233179879977291</v>
       </c>
       <c r="R69" t="n">
-        <v>0.7623090002977669</v>
+        <v>0.6887620876227452</v>
       </c>
       <c r="S69" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.6755133628845215</v>
+        <v>1.223284864425659</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02684840818617541</v>
+        <v>0.01632431295379619</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009300136566162109</v>
+        <v>0.01533050537109375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003659891275743896</v>
+        <v>0.006127649256516731</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
@@ -4727,52 +4727,52 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 125}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(10), 'regressor__max_features': None, 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 125}</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>-8.471256525695221</v>
+        <v>-8.367317029813197</v>
       </c>
       <c r="M70" t="n">
-        <v>-9.070809244626336</v>
+        <v>-8.995674126741635</v>
       </c>
       <c r="N70" t="n">
-        <v>-10.82950391309845</v>
+        <v>-10.6983460393236</v>
       </c>
       <c r="O70" t="n">
-        <v>-9.22174369626692</v>
+        <v>-9.43675453449911</v>
       </c>
       <c r="P70" t="n">
-        <v>-8.634961903206182</v>
+        <v>-8.981948383322059</v>
       </c>
       <c r="Q70" t="n">
-        <v>-9.24565505657862</v>
+        <v>-9.296008022739921</v>
       </c>
       <c r="R70" t="n">
-        <v>0.8381359345140509</v>
+        <v>0.7794436939084504</v>
       </c>
       <c r="S70" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1982780933380127</v>
+        <v>0.1968045234680176</v>
       </c>
       <c r="B71" t="n">
-        <v>0.006756891613835556</v>
+        <v>0.003465709576899853</v>
       </c>
       <c r="C71" t="n">
-        <v>0.007194375991821289</v>
+        <v>0.007042217254638672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001098881764070729</v>
+        <v>0.001012213757427078</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 14, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 96}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 14, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 96}</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -4815,27 +4815,27 @@
         <v>0.7638718954209467</v>
       </c>
       <c r="S71" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.2338642120361328</v>
+        <v>0.201020622253418</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004432271711623644</v>
+        <v>0.007064662979187239</v>
       </c>
       <c r="C72" t="n">
-        <v>0.00937337875366211</v>
+        <v>0.009701061248779296</v>
       </c>
       <c r="D72" t="n">
-        <v>0.001027346132083127</v>
+        <v>0.00141112035160674</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4853,52 +4853,52 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 134}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 134}</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>-8.304239407904431</v>
+        <v>-8.269523806921002</v>
       </c>
       <c r="M72" t="n">
-        <v>-9.06539947114355</v>
+        <v>-9.168888594849255</v>
       </c>
       <c r="N72" t="n">
-        <v>-10.5460268160144</v>
+        <v>-10.55707616878237</v>
       </c>
       <c r="O72" t="n">
-        <v>-9.293868431948988</v>
+        <v>-9.262131852397177</v>
       </c>
       <c r="P72" t="n">
-        <v>-8.545774866773938</v>
+        <v>-8.560856170391284</v>
       </c>
       <c r="Q72" t="n">
-        <v>-9.151061798757061</v>
+        <v>-9.163695318668216</v>
       </c>
       <c r="R72" t="n">
-        <v>0.7819385653497913</v>
+        <v>0.7892001832070816</v>
       </c>
       <c r="S72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2695235252380371</v>
+        <v>0.1802642345428467</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01192191660280165</v>
+        <v>0.006325398627310123</v>
       </c>
       <c r="C73" t="n">
-        <v>0.009402942657470704</v>
+        <v>0.007932472229003906</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001829563482360031</v>
+        <v>0.00110321002464893</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4916,52 +4916,52 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 118}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 11, 'regressor__n_estimators': 118}</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>-8.344382214673672</v>
+        <v>-8.325638271523909</v>
       </c>
       <c r="M73" t="n">
-        <v>-9.003610033452079</v>
+        <v>-9.057804806520615</v>
       </c>
       <c r="N73" t="n">
-        <v>-10.59303344915432</v>
+        <v>-10.5008334355463</v>
       </c>
       <c r="O73" t="n">
-        <v>-9.302270264940701</v>
+        <v>-9.209084596449289</v>
       </c>
       <c r="P73" t="n">
-        <v>-8.775441642923663</v>
+        <v>-8.615397370295364</v>
       </c>
       <c r="Q73" t="n">
-        <v>-9.203747521028887</v>
+        <v>-9.141751696067095</v>
       </c>
       <c r="R73" t="n">
-        <v>0.7618177984367788</v>
+        <v>0.748568496839462</v>
       </c>
       <c r="S73" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.324970102310181</v>
+        <v>1.401841688156128</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0338516615203677</v>
+        <v>0.08023744787348432</v>
       </c>
       <c r="C74" t="n">
-        <v>0.007999277114868164</v>
+        <v>0.008783817291259766</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001385383846430413</v>
+        <v>0.001350688424258791</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
@@ -4975,52 +4975,52 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(6), 'regressor__max_features': None, 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 118}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 10, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 118}</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>-14.34540583487198</v>
+        <v>-15.59143226102265</v>
       </c>
       <c r="M74" t="n">
-        <v>-11.541773962754</v>
+        <v>-13.34869149719928</v>
       </c>
       <c r="N74" t="n">
-        <v>-15.24456185636787</v>
+        <v>-15.39959444294181</v>
       </c>
       <c r="O74" t="n">
-        <v>-15.17700082647484</v>
+        <v>-15.5796412622752</v>
       </c>
       <c r="P74" t="n">
-        <v>-12.57211093071401</v>
+        <v>-12.98117135166319</v>
       </c>
       <c r="Q74" t="n">
-        <v>-13.77617068223654</v>
+        <v>-14.58010616302043</v>
       </c>
       <c r="R74" t="n">
-        <v>1.475453488086983</v>
+        <v>1.16330447796272</v>
       </c>
       <c r="S74" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.76606879234314</v>
+        <v>1.13840799331665</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03460227292782179</v>
+        <v>0.02692137745637674</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01124916076660156</v>
+        <v>0.01169381141662598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00180579205503576</v>
+        <v>0.002106615165629116</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
@@ -5034,52 +5034,52 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 177}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': None, 'regressor__min_samples_leaf': 2, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 177}</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>-8.357559170945626</v>
+        <v>-8.419735332622258</v>
       </c>
       <c r="M75" t="n">
-        <v>-9.073905347042812</v>
+        <v>-9.056635497729708</v>
       </c>
       <c r="N75" t="n">
-        <v>-10.75272437223401</v>
+        <v>-10.7562749857289</v>
       </c>
       <c r="O75" t="n">
-        <v>-9.257798350809708</v>
+        <v>-9.196655140494254</v>
       </c>
       <c r="P75" t="n">
-        <v>-8.910520385227555</v>
+        <v>-8.610436633354814</v>
       </c>
       <c r="Q75" t="n">
-        <v>-9.270501525251943</v>
+        <v>-9.207947517985989</v>
       </c>
       <c r="R75" t="n">
-        <v>0.7998557569340354</v>
+        <v>0.8244560023481228</v>
       </c>
       <c r="S75" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1821493625640869</v>
+        <v>0.2333745956420898</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003967539961935601</v>
+        <v>0.005598905216876152</v>
       </c>
       <c r="C76" t="n">
-        <v>0.009822940826416016</v>
+        <v>0.009685659408569336</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00262084223155471</v>
+        <v>0.001653664710186967</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -5097,52 +5097,52 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 150}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 150}</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>-8.413211472142256</v>
+        <v>-8.425882419941718</v>
       </c>
       <c r="M76" t="n">
-        <v>-9.387488049150356</v>
+        <v>-9.328762061011947</v>
       </c>
       <c r="N76" t="n">
-        <v>-10.69190069624871</v>
+        <v>-10.43020497025153</v>
       </c>
       <c r="O76" t="n">
-        <v>-9.134828511460713</v>
+        <v>-9.099066707547919</v>
       </c>
       <c r="P76" t="n">
-        <v>-8.689002554666228</v>
+        <v>-8.626003305108489</v>
       </c>
       <c r="Q76" t="n">
-        <v>-9.263286256733654</v>
+        <v>-9.181983892772321</v>
       </c>
       <c r="R76" t="n">
-        <v>0.7906068054614016</v>
+        <v>0.7024640630831294</v>
       </c>
       <c r="S76" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3980993270874024</v>
+        <v>0.3966482162475586</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01330755770265546</v>
+        <v>0.008988112653593632</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01098651885986328</v>
+        <v>0.01052894592285156</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001038404463970194</v>
+        <v>0.001487062679659963</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5160,52 +5160,52 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 123}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 1, 'regressor__min_samples_split': 9, 'regressor__n_estimators': 123}</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>-8.494741502751136</v>
+        <v>-8.448150449019844</v>
       </c>
       <c r="M77" t="n">
-        <v>-9.289897588983028</v>
+        <v>-9.342951439865642</v>
       </c>
       <c r="N77" t="n">
-        <v>-10.45173489563736</v>
+        <v>-10.39461364002817</v>
       </c>
       <c r="O77" t="n">
-        <v>-9.21294818236618</v>
+        <v>-9.437755810815174</v>
       </c>
       <c r="P77" t="n">
-        <v>-9.053102577040587</v>
+        <v>-9.091240909563231</v>
       </c>
       <c r="Q77" t="n">
-        <v>-9.300484949355658</v>
+        <v>-9.342942449858413</v>
       </c>
       <c r="R77" t="n">
-        <v>0.6393077125245104</v>
+        <v>0.6291276906767765</v>
       </c>
       <c r="S77" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1282253265380859</v>
+        <v>0.1270316123962402</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003496192978488724</v>
+        <v>0.005157170024637274</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006207752227783203</v>
+        <v>0.006674289703369141</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0008600810496595448</v>
+        <v>0.0008913226460371685</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5223,46 +5223,46 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 84}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 84}</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>-8.325740210943174</v>
+        <v>-8.29997945608061</v>
       </c>
       <c r="M78" t="n">
-        <v>-9.200060394667993</v>
+        <v>-9.217144418891877</v>
       </c>
       <c r="N78" t="n">
-        <v>-10.49835233533153</v>
+        <v>-10.55016574795223</v>
       </c>
       <c r="O78" t="n">
-        <v>-9.365926305502388</v>
+        <v>-9.377291715032959</v>
       </c>
       <c r="P78" t="n">
-        <v>-8.59183326576694</v>
+        <v>-8.583607906298679</v>
       </c>
       <c r="Q78" t="n">
-        <v>-9.196382502442404</v>
+        <v>-9.205637848851271</v>
       </c>
       <c r="R78" t="n">
-        <v>0.7546365818210142</v>
+        <v>0.7803193059533988</v>
       </c>
       <c r="S78" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2159985542297363</v>
+        <v>0.219879961013794</v>
       </c>
       <c r="B79" t="n">
-        <v>0.006576385560930542</v>
+        <v>0.006081803492221688</v>
       </c>
       <c r="C79" t="n">
-        <v>0.009035348892211914</v>
+        <v>0.01034717559814453</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001462613661402262</v>
+        <v>0.001680214480014197</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -5309,27 +5309,27 @@
         <v>0.7537104450901597</v>
       </c>
       <c r="S79" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.206190824508667</v>
+        <v>1.312562894821167</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01987251424665579</v>
+        <v>0.05243378159987719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.008570241928100585</v>
+        <v>0.008437824249267579</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001889780649732552</v>
+        <v>0.001283736241686561</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
@@ -5343,52 +5343,52 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(6), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 107}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': None, 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 107}</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>-14.33681433815261</v>
+        <v>-15.56300757353977</v>
       </c>
       <c r="M80" t="n">
-        <v>-11.52597635950204</v>
+        <v>-14.06903971361434</v>
       </c>
       <c r="N80" t="n">
-        <v>-15.05077480992934</v>
+        <v>-15.09403721740769</v>
       </c>
       <c r="O80" t="n">
-        <v>-15.03682380134282</v>
+        <v>-15.64587855461459</v>
       </c>
       <c r="P80" t="n">
-        <v>-12.85524118219348</v>
+        <v>-13.89515137138424</v>
       </c>
       <c r="Q80" t="n">
-        <v>-13.76112609822406</v>
+        <v>-14.85342288611213</v>
       </c>
       <c r="R80" t="n">
-        <v>1.373938660533173</v>
+        <v>0.7379611004429476</v>
       </c>
       <c r="S80" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.1198697090148926</v>
+        <v>0.1250003337860107</v>
       </c>
       <c r="B81" t="n">
-        <v>0.007289801550751781</v>
+        <v>0.004699429495217423</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005733585357666016</v>
+        <v>0.00657186508178711</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0007466562311889839</v>
+        <v>0.0005430149579349933</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5406,52 +5406,52 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 5, 'regressor__n_estimators': 70}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 5, 'regressor__n_estimators': 70}</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>-8.301495577692581</v>
+        <v>-8.250899144802997</v>
       </c>
       <c r="M81" t="n">
-        <v>-9.053762364844838</v>
+        <v>-9.003208920029738</v>
       </c>
       <c r="N81" t="n">
-        <v>-10.44813551666715</v>
+        <v>-10.66668810864161</v>
       </c>
       <c r="O81" t="n">
-        <v>-9.264091182650279</v>
+        <v>-9.317459373686356</v>
       </c>
       <c r="P81" t="n">
-        <v>-8.572245816277031</v>
+        <v>-8.45348386715051</v>
       </c>
       <c r="Q81" t="n">
-        <v>-9.127946091626375</v>
+        <v>-9.138347882862243</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7428003873347622</v>
+        <v>0.8535538991599492</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.2373544216156006</v>
+        <v>0.1766503810882568</v>
       </c>
       <c r="B82" t="n">
-        <v>0.007651830467728513</v>
+        <v>0.009500384570050622</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01079568862915039</v>
+        <v>0.009961271286010742</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001552487548866614</v>
+        <v>0.00149312202618086</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5469,52 +5469,52 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 148}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 148}</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>-8.243150461898537</v>
+        <v>-8.43488605591074</v>
       </c>
       <c r="M82" t="n">
-        <v>-9.054999088270915</v>
+        <v>-9.377401240573032</v>
       </c>
       <c r="N82" t="n">
-        <v>-10.63155097929296</v>
+        <v>-10.70985012544993</v>
       </c>
       <c r="O82" t="n">
-        <v>-9.108587293110959</v>
+        <v>-9.197373248204487</v>
       </c>
       <c r="P82" t="n">
-        <v>-8.528436871735922</v>
+        <v>-8.64402534887928</v>
       </c>
       <c r="Q82" t="n">
-        <v>-9.113344938861857</v>
+        <v>-9.272707203803494</v>
       </c>
       <c r="R82" t="n">
-        <v>0.8255582752782772</v>
+        <v>0.7973958833612095</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2262188911437988</v>
+        <v>0.1910534858703613</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01252378795462899</v>
+        <v>0.004003800921710204</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01024951934814453</v>
+        <v>0.01132631301879883</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001701879304280531</v>
+        <v>0.001473147680636933</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5532,52 +5532,52 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 145}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 145}</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>-8.352579755272252</v>
+        <v>-8.395977016141877</v>
       </c>
       <c r="M83" t="n">
-        <v>-9.074398039656975</v>
+        <v>-9.208636442776371</v>
       </c>
       <c r="N83" t="n">
-        <v>-10.4420685403413</v>
+        <v>-10.55681691635595</v>
       </c>
       <c r="O83" t="n">
-        <v>-9.305839868351759</v>
+        <v>-9.199505026102035</v>
       </c>
       <c r="P83" t="n">
-        <v>-8.672362588475787</v>
+        <v>-8.639677377129422</v>
       </c>
       <c r="Q83" t="n">
-        <v>-9.169449758419615</v>
+        <v>-9.20012255570113</v>
       </c>
       <c r="R83" t="n">
-        <v>0.7157608416212237</v>
+        <v>0.7485240547672238</v>
       </c>
       <c r="S83" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1830750942230225</v>
+        <v>0.3309545040130615</v>
       </c>
       <c r="B84" t="n">
-        <v>0.008139295945692945</v>
+        <v>0.008797176877643031</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01136112213134766</v>
+        <v>0.01137814521789551</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002012507351373579</v>
+        <v>0.002042378157315508</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5595,52 +5595,52 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 162}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 162}</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>-8.373774082346101</v>
+        <v>-8.335552138715911</v>
       </c>
       <c r="M84" t="n">
-        <v>-9.397235650364305</v>
+        <v>-9.241172338359609</v>
       </c>
       <c r="N84" t="n">
-        <v>-10.68645820757061</v>
+        <v>-10.44136185959787</v>
       </c>
       <c r="O84" t="n">
-        <v>-9.160212900647284</v>
+        <v>-9.349988931429928</v>
       </c>
       <c r="P84" t="n">
-        <v>-8.698944305993528</v>
+        <v>-8.794221836278247</v>
       </c>
       <c r="Q84" t="n">
-        <v>-9.263325029384365</v>
+        <v>-9.232459420876314</v>
       </c>
       <c r="R84" t="n">
-        <v>0.7954493945777128</v>
+        <v>0.7031115218051376</v>
       </c>
       <c r="S84" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1136617183685303</v>
+        <v>0.1769017696380615</v>
       </c>
       <c r="B85" t="n">
-        <v>0.003647722983233966</v>
+        <v>0.004039389402195397</v>
       </c>
       <c r="C85" t="n">
-        <v>0.006579351425170898</v>
+        <v>0.007441997528076172</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0007953866262549407</v>
+        <v>0.001490166678524597</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5658,46 +5658,46 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 79}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(10), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 3, 'regressor__min_samples_split': 10, 'regressor__n_estimators': 79}</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>-8.253894623705873</v>
+        <v>-8.108123808332671</v>
       </c>
       <c r="M85" t="n">
-        <v>-9.294597075642081</v>
+        <v>-9.016794456995285</v>
       </c>
       <c r="N85" t="n">
-        <v>-10.74679207780762</v>
+        <v>-10.52086375565163</v>
       </c>
       <c r="O85" t="n">
-        <v>-9.165267267524438</v>
+        <v>-9.29282677506805</v>
       </c>
       <c r="P85" t="n">
-        <v>-8.653028004012388</v>
+        <v>-8.932890477758649</v>
       </c>
       <c r="Q85" t="n">
-        <v>-9.22271580973848</v>
+        <v>-9.174299854761255</v>
       </c>
       <c r="R85" t="n">
-        <v>0.8478719725029968</v>
+        <v>0.7806536709228744</v>
       </c>
       <c r="S85" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.09411277770996093</v>
+        <v>0.0991361141204834</v>
       </c>
       <c r="B86" t="n">
-        <v>0.00365056459729992</v>
+        <v>0.007265508768473297</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005452632904052734</v>
+        <v>0.006047773361206055</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0008404956747740177</v>
+        <v>0.0009491392237052902</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -5744,27 +5744,27 @@
         <v>0.8174913044867479</v>
       </c>
       <c r="S86" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1092273712158203</v>
+        <v>0.08952994346618652</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001827723566297154</v>
+        <v>0.001342062509631079</v>
       </c>
       <c r="C87" t="n">
-        <v>0.005148077011108398</v>
+        <v>0.005306482315063477</v>
       </c>
       <c r="D87" t="n">
-        <v>0.000670859715227141</v>
+        <v>0.0005830963371283778</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5782,52 +5782,52 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 58}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 58}</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>-8.145258252539012</v>
+        <v>-8.236479481716211</v>
       </c>
       <c r="M87" t="n">
-        <v>-9.008458558987378</v>
+        <v>-9.126738550855274</v>
       </c>
       <c r="N87" t="n">
-        <v>-10.61967953588508</v>
+        <v>-10.54138522643548</v>
       </c>
       <c r="O87" t="n">
-        <v>-9.443064470278697</v>
+        <v>-9.331049575806965</v>
       </c>
       <c r="P87" t="n">
-        <v>-8.811702010317918</v>
+        <v>-8.662050831985287</v>
       </c>
       <c r="Q87" t="n">
-        <v>-9.205632565601617</v>
+        <v>-9.179540733359843</v>
       </c>
       <c r="R87" t="n">
-        <v>0.821505361954487</v>
+        <v>0.7794259099508617</v>
       </c>
       <c r="S87" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.108888578414917</v>
+        <v>0.9710824966430665</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01473762015559481</v>
+        <v>0.02481886260167967</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01123838424682617</v>
+        <v>0.0133570671081543</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002294049907200414</v>
+        <v>0.00288352356856568</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
@@ -5841,52 +5841,52 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(11), 'regressor__max_features': None, 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 166}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(4), 'regressor__max_features': None, 'regressor__min_samples_leaf': 15, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 166}</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>-8.495905085012433</v>
+        <v>-8.530162739304416</v>
       </c>
       <c r="M88" t="n">
-        <v>-8.929026761856864</v>
+        <v>-8.968494125395644</v>
       </c>
       <c r="N88" t="n">
-        <v>-10.57032496087481</v>
+        <v>-10.67500880678984</v>
       </c>
       <c r="O88" t="n">
-        <v>-9.231371292825044</v>
+        <v>-9.168187422914068</v>
       </c>
       <c r="P88" t="n">
-        <v>-8.707942981959807</v>
+        <v>-8.634553919926855</v>
       </c>
       <c r="Q88" t="n">
-        <v>-9.186914216505793</v>
+        <v>-9.195281402866163</v>
       </c>
       <c r="R88" t="n">
-        <v>0.7333777637569197</v>
+        <v>0.7744104712149038</v>
       </c>
       <c r="S88" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2164400100708008</v>
+        <v>0.2204574108123779</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004851718246407512</v>
+        <v>0.00467761920634932</v>
       </c>
       <c r="C89" t="n">
-        <v>0.008305358886718749</v>
+        <v>0.008711099624633789</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001502393327571812</v>
+        <v>0.001108458574854566</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5904,52 +5904,52 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 106}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 4, 'regressor__min_samples_split': 17, 'regressor__n_estimators': 106}</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>-8.29572114895881</v>
+        <v>-8.329654060810704</v>
       </c>
       <c r="M89" t="n">
-        <v>-9.373501892083405</v>
+        <v>-9.330148239281868</v>
       </c>
       <c r="N89" t="n">
-        <v>-10.54144910593486</v>
+        <v>-10.57078992813893</v>
       </c>
       <c r="O89" t="n">
-        <v>-9.225444710437097</v>
+        <v>-9.233319187273418</v>
       </c>
       <c r="P89" t="n">
-        <v>-8.6219394410435</v>
+        <v>-8.633013434869634</v>
       </c>
       <c r="Q89" t="n">
-        <v>-9.211611259691534</v>
+        <v>-9.219384970074911</v>
       </c>
       <c r="R89" t="n">
-        <v>0.7721963723254004</v>
+        <v>0.771260097903875</v>
       </c>
       <c r="S89" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.2406714916229248</v>
+        <v>0.267246150970459</v>
       </c>
       <c r="B90" t="n">
-        <v>0.003954670705003653</v>
+        <v>0.002317018701269484</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01004133224487305</v>
+        <v>0.01044716835021973</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0003586692461849742</v>
+        <v>0.0005182753053220874</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5967,52 +5967,52 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 171}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(15), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 15, 'regressor__n_estimators': 171}</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>-8.409861372139201</v>
+        <v>-8.401664053520543</v>
       </c>
       <c r="M90" t="n">
-        <v>-9.150384786643134</v>
+        <v>-9.038154669121862</v>
       </c>
       <c r="N90" t="n">
-        <v>-10.58583688119931</v>
+        <v>-10.63029220422592</v>
       </c>
       <c r="O90" t="n">
-        <v>-9.15688256276036</v>
+        <v>-9.154681694241221</v>
       </c>
       <c r="P90" t="n">
-        <v>-8.600010286034363</v>
+        <v>-8.695803940607449</v>
       </c>
       <c r="Q90" t="n">
-        <v>-9.180595177755274</v>
+        <v>-9.184119312343398</v>
       </c>
       <c r="R90" t="n">
-        <v>0.7625337522435793</v>
+        <v>0.7699709628264336</v>
       </c>
       <c r="S90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.492633867263794</v>
+        <v>1.461241436004639</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03781817737983415</v>
+        <v>0.01378153416979621</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01266202926635742</v>
+        <v>0.01100697517395019</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002698808673610064</v>
+        <v>0.0003486142930056861</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(13), 'regressor__max_features': None, 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 195}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(17), 'regressor__max_features': None, 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 12, 'regressor__n_estimators': 195}</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -6051,27 +6051,27 @@
         <v>0.8091687878465885</v>
       </c>
       <c r="S91" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.08488287925720214</v>
+        <v>0.06537537574768067</v>
       </c>
       <c r="B92" t="n">
-        <v>0.003651747602905046</v>
+        <v>0.001989687111017263</v>
       </c>
       <c r="C92" t="n">
-        <v>0.005664253234863281</v>
+        <v>0.004405641555786132</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0007415574669924378</v>
+        <v>0.0001716506875206774</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6089,52 +6089,52 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 56}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 12, 'regressor__min_samples_split': 18, 'regressor__n_estimators': 56}</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>-8.31444238724689</v>
+        <v>-8.479487869886787</v>
       </c>
       <c r="M92" t="n">
-        <v>-9.216167703562045</v>
+        <v>-9.392133125857033</v>
       </c>
       <c r="N92" t="n">
-        <v>-10.63944493600876</v>
+        <v>-10.69138224882865</v>
       </c>
       <c r="O92" t="n">
-        <v>-9.288117983107817</v>
+        <v>-9.345281517850085</v>
       </c>
       <c r="P92" t="n">
-        <v>-8.67568674765816</v>
+        <v>-8.693862712524396</v>
       </c>
       <c r="Q92" t="n">
-        <v>-9.226771951516735</v>
+        <v>-9.320429494989389</v>
       </c>
       <c r="R92" t="n">
-        <v>0.7919041460344717</v>
+        <v>0.7726628290138036</v>
       </c>
       <c r="S92" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.0885775089263916</v>
+        <v>0.128544807434082</v>
       </c>
       <c r="B93" t="n">
-        <v>0.003875963711501781</v>
+        <v>0.004078590866262517</v>
       </c>
       <c r="C93" t="n">
-        <v>0.006323432922363282</v>
+        <v>0.005699872970581055</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001007358088646383</v>
+        <v>0.0002442354617844805</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6152,52 +6152,52 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(3), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 76}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(7), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 19, 'regressor__n_estimators': 76}</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>-8.470348925259271</v>
+        <v>-8.34582326109334</v>
       </c>
       <c r="M93" t="n">
-        <v>-9.430444807780027</v>
+        <v>-9.287703661562208</v>
       </c>
       <c r="N93" t="n">
-        <v>-10.64239788062077</v>
+        <v>-10.56377527191472</v>
       </c>
       <c r="O93" t="n">
-        <v>-9.170641599203689</v>
+        <v>-9.441337323084253</v>
       </c>
       <c r="P93" t="n">
-        <v>-8.81222937290555</v>
+        <v>-8.743735127405262</v>
       </c>
       <c r="Q93" t="n">
-        <v>-9.305212517153862</v>
+        <v>-9.276474929011957</v>
       </c>
       <c r="R93" t="n">
-        <v>0.7432209297951254</v>
+        <v>0.7529106307480534</v>
       </c>
       <c r="S93" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.284985876083374</v>
+        <v>0.3532582759857178</v>
       </c>
       <c r="B94" t="n">
-        <v>0.008541818914589211</v>
+        <v>0.00349520636319007</v>
       </c>
       <c r="C94" t="n">
-        <v>0.009442758560180665</v>
+        <v>0.01134591102600098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001674645429035275</v>
+        <v>0.002439604917039013</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6215,46 +6215,46 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(6), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 132}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 5, 'regressor__min_samples_split': 7, 'regressor__n_estimators': 132}</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>-8.336916591635353</v>
+        <v>-8.278053418124797</v>
       </c>
       <c r="M94" t="n">
-        <v>-9.214358265877868</v>
+        <v>-9.04575198400315</v>
       </c>
       <c r="N94" t="n">
-        <v>-10.60098824586885</v>
+        <v>-10.4359212387992</v>
       </c>
       <c r="O94" t="n">
-        <v>-9.344353343502696</v>
+        <v>-9.392719568418</v>
       </c>
       <c r="P94" t="n">
-        <v>-8.828146731663127</v>
+        <v>-8.828814875119805</v>
       </c>
       <c r="Q94" t="n">
-        <v>-9.26495263570958</v>
+        <v>-9.19625221689299</v>
       </c>
       <c r="R94" t="n">
-        <v>0.7544409468183914</v>
+        <v>0.717792206474512</v>
       </c>
       <c r="S94" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1464902400970459</v>
+        <v>0.149582576751709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005158400197447604</v>
+        <v>0.005236175032632541</v>
       </c>
       <c r="C95" t="n">
-        <v>0.007337045669555664</v>
+        <v>0.007481861114501953</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001339214552178421</v>
+        <v>0.00120445163622811</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -6301,27 +6301,27 @@
         <v>0.7065464702983042</v>
       </c>
       <c r="S95" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.2106876373291016</v>
+        <v>0.1868736267089844</v>
       </c>
       <c r="B96" t="n">
-        <v>0.008187542150921606</v>
+        <v>0.01279820685853743</v>
       </c>
       <c r="C96" t="n">
-        <v>0.009772634506225586</v>
+        <v>0.009897422790527344</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001958811425560273</v>
+        <v>0.001735917683910311</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6339,52 +6339,52 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(11), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 140}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(4), 'regressor__max_features': 'log2', 'regressor__min_samples_leaf': 19, 'regressor__min_samples_split': 13, 'regressor__n_estimators': 140}</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>-8.376362004887277</v>
+        <v>-8.42635463139799</v>
       </c>
       <c r="M96" t="n">
-        <v>-9.195190170377941</v>
+        <v>-9.171618802050881</v>
       </c>
       <c r="N96" t="n">
-        <v>-10.5058653127102</v>
+        <v>-10.56866351996092</v>
       </c>
       <c r="O96" t="n">
-        <v>-9.330663560155402</v>
+        <v>-9.166355231203461</v>
       </c>
       <c r="P96" t="n">
-        <v>-8.660792099862153</v>
+        <v>-8.623923311302228</v>
       </c>
       <c r="Q96" t="n">
-        <v>-9.213774629598595</v>
+        <v>-9.191383099183096</v>
       </c>
       <c r="R96" t="n">
-        <v>0.7335606750384972</v>
+        <v>0.7490257066961177</v>
       </c>
       <c r="S96" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.151508665084839</v>
+        <v>1.678744125366211</v>
       </c>
       <c r="B97" t="n">
-        <v>0.08397300606133286</v>
+        <v>0.01184723141488402</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00650029182434082</v>
+        <v>0.006498050689697265</v>
       </c>
       <c r="D97" t="n">
-        <v>9.148707121257833e-05</v>
+        <v>7.896334076344629e-05</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
@@ -6398,52 +6398,52 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(19), 'regressor__max_features': None, 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 190}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': None, 'regressor__min_samples_leaf': 7, 'regressor__min_samples_split': 4, 'regressor__n_estimators': 190}</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>-16.00888234766501</v>
+        <v>-13.83232676308204</v>
       </c>
       <c r="M97" t="n">
-        <v>-14.71864231767677</v>
+        <v>-11.73068242457554</v>
       </c>
       <c r="N97" t="n">
-        <v>-17.09578284306471</v>
+        <v>-15.61922259469747</v>
       </c>
       <c r="O97" t="n">
-        <v>-16.49644714556734</v>
+        <v>-13.6797062031362</v>
       </c>
       <c r="P97" t="n">
-        <v>-12.62208098622755</v>
+        <v>-11.19333411271581</v>
       </c>
       <c r="Q97" t="n">
-        <v>-15.38836712804028</v>
+        <v>-13.21105441964141</v>
       </c>
       <c r="R97" t="n">
-        <v>1.589277774773351</v>
+        <v>1.591702501034984</v>
       </c>
       <c r="S97" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.1206686973571777</v>
+        <v>0.1002604961395264</v>
       </c>
       <c r="B98" t="n">
-        <v>0.005484609479437188</v>
+        <v>0.003056834316195107</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005822324752807617</v>
+        <v>0.00560908317565918</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001685574061528474</v>
+        <v>0.0007036242358293808</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6461,52 +6461,52 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(19), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 50}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 9, 'regressor__min_samples_split': 8, 'regressor__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>-8.366246354361328</v>
+        <v>-8.31151634385078</v>
       </c>
       <c r="M98" t="n">
-        <v>-9.178287906983792</v>
+        <v>-9.213452180231421</v>
       </c>
       <c r="N98" t="n">
-        <v>-10.38878692450915</v>
+        <v>-10.52713927650722</v>
       </c>
       <c r="O98" t="n">
-        <v>-9.401198667463966</v>
+        <v>-9.296358405479873</v>
       </c>
       <c r="P98" t="n">
-        <v>-8.647150144786519</v>
+        <v>-8.736674926159068</v>
       </c>
       <c r="Q98" t="n">
-        <v>-9.196333999620951</v>
+        <v>-9.217028226445674</v>
       </c>
       <c r="R98" t="n">
-        <v>0.7006978773890771</v>
+        <v>0.7447668214310148</v>
       </c>
       <c r="S98" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.037573289871216</v>
+        <v>0.7896928310394287</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0172512448436162</v>
+        <v>0.01049182260964729</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007307147979736328</v>
+        <v>0.01061105728149414</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002334555138808616</v>
+        <v>0.002929082004026065</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
@@ -6520,52 +6520,52 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(7), 'regressor__max_features': None, 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 166}</t>
+          <t>{'regressor__bootstrap': True, 'regressor__max_depth': np.int64(3), 'regressor__max_features': None, 'regressor__min_samples_leaf': 17, 'regressor__min_samples_split': 2, 'regressor__n_estimators': 166}</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>-8.526476074891436</v>
+        <v>-8.545568611234769</v>
       </c>
       <c r="M99" t="n">
-        <v>-8.914444566896204</v>
+        <v>-9.008929023314121</v>
       </c>
       <c r="N99" t="n">
-        <v>-10.5711341522206</v>
+        <v>-10.69308432777463</v>
       </c>
       <c r="O99" t="n">
-        <v>-9.221384920149564</v>
+        <v>-9.173691037610544</v>
       </c>
       <c r="P99" t="n">
-        <v>-8.611551755119111</v>
+        <v>-8.529534610136484</v>
       </c>
       <c r="Q99" t="n">
-        <v>-9.168998293855385</v>
+        <v>-9.190161522014108</v>
       </c>
       <c r="R99" t="n">
-        <v>0.7425777224302204</v>
+        <v>0.7929465798955879</v>
       </c>
       <c r="S99" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4204987525939942</v>
+        <v>0.365593957901001</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0208666520431842</v>
+        <v>0.01102424092770067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01297621726989746</v>
+        <v>0.01401333808898926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002519054249215712</v>
+        <v>0.002070312172850955</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6583,52 +6583,52 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(19), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 16, 'regressor__n_estimators': 198}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(5), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 13, 'regressor__min_samples_split': 16, 'regressor__n_estimators': 198}</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>-8.28126051695253</v>
+        <v>-8.38914347617454</v>
       </c>
       <c r="M100" t="n">
-        <v>-9.133351372695765</v>
+        <v>-9.118921818576657</v>
       </c>
       <c r="N100" t="n">
-        <v>-10.55523657084499</v>
+        <v>-10.58064027785727</v>
       </c>
       <c r="O100" t="n">
-        <v>-9.32168157445283</v>
+        <v>-9.302312890524993</v>
       </c>
       <c r="P100" t="n">
-        <v>-8.705425520993069</v>
+        <v>-8.612672759504456</v>
       </c>
       <c r="Q100" t="n">
-        <v>-9.199391111187836</v>
+        <v>-9.200738244527583</v>
       </c>
       <c r="R100" t="n">
-        <v>0.7674110902646543</v>
+        <v>0.7649376498180487</v>
       </c>
       <c r="S100" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4066618919372559</v>
+        <v>0.4041368961334229</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01091605200413448</v>
+        <v>0.009235998817377689</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01201801300048828</v>
+        <v>0.008020448684692382</v>
       </c>
       <c r="D101" t="n">
-        <v>0.003803736895439858</v>
+        <v>0.0007156770959150445</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6646,32 +6646,32 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(14), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 196}</t>
+          <t>{'regressor__bootstrap': False, 'regressor__max_depth': np.int64(9), 'regressor__max_features': 'sqrt', 'regressor__min_samples_leaf': 11, 'regressor__min_samples_split': 6, 'regressor__n_estimators': 196}</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>-8.409446122912557</v>
+        <v>-8.400684157267849</v>
       </c>
       <c r="M101" t="n">
-        <v>-9.026135773575589</v>
+        <v>-9.031502999027531</v>
       </c>
       <c r="N101" t="n">
-        <v>-10.45468058125804</v>
+        <v>-10.5514319283521</v>
       </c>
       <c r="O101" t="n">
-        <v>-9.387928096422742</v>
+        <v>-9.376305650291878</v>
       </c>
       <c r="P101" t="n">
-        <v>-8.747358428321917</v>
+        <v>-8.725548783568279</v>
       </c>
       <c r="Q101" t="n">
-        <v>-9.205109800498168</v>
+        <v>-9.217094703701527</v>
       </c>
       <c r="R101" t="n">
-        <v>0.7027799619119447</v>
+        <v>0.7414029683477101</v>
       </c>
       <c r="S101" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
